--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2449 +483,2449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.62094587</v>
+        <v>98.3677811</v>
       </c>
       <c r="C2" t="n">
-        <v>103.583013399999</v>
+        <v>99.63220303</v>
       </c>
       <c r="D2" t="n">
-        <v>104.832362799999</v>
+        <v>102.85496216</v>
       </c>
       <c r="E2" t="n">
-        <v>101.7772228</v>
+        <v>101.3622634</v>
       </c>
       <c r="F2" t="n">
-        <v>102.095946699999</v>
+        <v>101.75181582</v>
       </c>
       <c r="G2" t="n">
-        <v>102.0993502</v>
+        <v>101.66014007</v>
       </c>
       <c r="H2" t="n">
-        <v>100.3908897</v>
+        <v>100.61048814</v>
       </c>
       <c r="I2" t="n">
-        <v>101.3384795</v>
+        <v>101.87948608</v>
       </c>
       <c r="J2" t="n">
-        <v>103.042975799999</v>
+        <v>103.62816617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.017771</v>
+        <v>98.37432653</v>
       </c>
       <c r="C3" t="n">
-        <v>104.2330252</v>
+        <v>100.44691237</v>
       </c>
       <c r="D3" t="n">
-        <v>104.3508426</v>
+        <v>102.76198364</v>
       </c>
       <c r="E3" t="n">
-        <v>102.0192928</v>
+        <v>101.25894077</v>
       </c>
       <c r="F3" t="n">
-        <v>102.2522581</v>
+        <v>102.28432853</v>
       </c>
       <c r="G3" t="n">
-        <v>102.2166153</v>
+        <v>100.92852487</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3474622</v>
+        <v>100.32344714</v>
       </c>
       <c r="I3" t="n">
-        <v>101.3799825</v>
+        <v>101.61921702</v>
       </c>
       <c r="J3" t="n">
-        <v>103.2368037</v>
+        <v>105.78190606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.9358242</v>
+        <v>97.38280583</v>
       </c>
       <c r="C4" t="n">
-        <v>103.9984945</v>
+        <v>101.71973406</v>
       </c>
       <c r="D4" t="n">
-        <v>104.5936394</v>
+        <v>103.0950376</v>
       </c>
       <c r="E4" t="n">
-        <v>102.068891</v>
+        <v>101.31440658</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0765455</v>
+        <v>102.30139085</v>
       </c>
       <c r="G4" t="n">
-        <v>102.3193937</v>
+        <v>101.17129883</v>
       </c>
       <c r="H4" t="n">
-        <v>100.4116502</v>
+        <v>100.37771911</v>
       </c>
       <c r="I4" t="n">
-        <v>101.1294089</v>
+        <v>101.53295003</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2008019</v>
+        <v>105.96972326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.3677811</v>
+        <v>97.62634703000001</v>
       </c>
       <c r="C5" t="n">
-        <v>99.63220303</v>
+        <v>101.65687235</v>
       </c>
       <c r="D5" t="n">
-        <v>102.85496216</v>
+        <v>103.22633349</v>
       </c>
       <c r="E5" t="n">
-        <v>101.3622634</v>
+        <v>101.40580101</v>
       </c>
       <c r="F5" t="n">
-        <v>101.75181582</v>
+        <v>102.32786471</v>
       </c>
       <c r="G5" t="n">
-        <v>101.66014007</v>
+        <v>101.15889361</v>
       </c>
       <c r="H5" t="n">
-        <v>100.61048814</v>
+        <v>100.47687796</v>
       </c>
       <c r="I5" t="n">
-        <v>101.87948608</v>
+        <v>101.47068341</v>
       </c>
       <c r="J5" t="n">
-        <v>103.62816617</v>
+        <v>105.89121243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.37432653</v>
+        <v>97.39784634</v>
       </c>
       <c r="C6" t="n">
-        <v>100.44691237</v>
+        <v>102.22039534</v>
       </c>
       <c r="D6" t="n">
-        <v>102.76198364</v>
+        <v>103.47302026</v>
       </c>
       <c r="E6" t="n">
-        <v>101.25894077</v>
+        <v>101.55706639</v>
       </c>
       <c r="F6" t="n">
-        <v>102.28432853</v>
+        <v>102.0389992</v>
       </c>
       <c r="G6" t="n">
-        <v>100.92852487</v>
+        <v>101.20628465</v>
       </c>
       <c r="H6" t="n">
-        <v>100.32344714</v>
+        <v>100.6386735</v>
       </c>
       <c r="I6" t="n">
-        <v>101.61921702</v>
+        <v>101.54206037</v>
       </c>
       <c r="J6" t="n">
-        <v>105.78190606</v>
+        <v>104.73532494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.38280583</v>
+        <v>98.19672174999999</v>
       </c>
       <c r="C7" t="n">
-        <v>101.71973406</v>
+        <v>102.60774931</v>
       </c>
       <c r="D7" t="n">
-        <v>103.0950376</v>
+        <v>103.77384279</v>
       </c>
       <c r="E7" t="n">
-        <v>101.31440658</v>
+        <v>101.6032951</v>
       </c>
       <c r="F7" t="n">
-        <v>102.30139085</v>
+        <v>101.87950281</v>
       </c>
       <c r="G7" t="n">
-        <v>101.17129883</v>
+        <v>101.38829669</v>
       </c>
       <c r="H7" t="n">
-        <v>100.37771911</v>
+        <v>100.58763051</v>
       </c>
       <c r="I7" t="n">
-        <v>101.53295003</v>
+        <v>101.40613321</v>
       </c>
       <c r="J7" t="n">
-        <v>105.96972326</v>
+        <v>103.67159382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.62634703000001</v>
+        <v>98.41054659</v>
       </c>
       <c r="C8" t="n">
-        <v>101.65687235</v>
+        <v>104.35370306</v>
       </c>
       <c r="D8" t="n">
-        <v>103.22633349</v>
+        <v>104.26179446</v>
       </c>
       <c r="E8" t="n">
-        <v>101.40580101</v>
+        <v>101.59724334</v>
       </c>
       <c r="F8" t="n">
-        <v>102.32786471</v>
+        <v>101.76511296</v>
       </c>
       <c r="G8" t="n">
-        <v>101.15889361</v>
+        <v>101.6063177</v>
       </c>
       <c r="H8" t="n">
-        <v>100.47687796</v>
+        <v>100.57371954</v>
       </c>
       <c r="I8" t="n">
-        <v>101.47068341</v>
+        <v>101.35171008</v>
       </c>
       <c r="J8" t="n">
-        <v>105.89121243</v>
+        <v>102.81102094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.39784634</v>
+        <v>98.75375639000001</v>
       </c>
       <c r="C9" t="n">
-        <v>102.22039534</v>
+        <v>104.47656284</v>
       </c>
       <c r="D9" t="n">
-        <v>103.47302026</v>
+        <v>104.31380476</v>
       </c>
       <c r="E9" t="n">
-        <v>101.55706639</v>
+        <v>101.46892177</v>
       </c>
       <c r="F9" t="n">
-        <v>102.0389992</v>
+        <v>101.33977315</v>
       </c>
       <c r="G9" t="n">
-        <v>101.20628465</v>
+        <v>101.32404109</v>
       </c>
       <c r="H9" t="n">
-        <v>100.6386735</v>
+        <v>100.3850842</v>
       </c>
       <c r="I9" t="n">
-        <v>101.54206037</v>
+        <v>101.2623754</v>
       </c>
       <c r="J9" t="n">
-        <v>104.73532494</v>
+        <v>101.45349762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.19672174999999</v>
+        <v>99.64599415000001</v>
       </c>
       <c r="C10" t="n">
-        <v>102.60774931</v>
+        <v>104.4165478</v>
       </c>
       <c r="D10" t="n">
-        <v>103.77384279</v>
+        <v>104.3345838</v>
       </c>
       <c r="E10" t="n">
-        <v>101.6032951</v>
+        <v>101.547064</v>
       </c>
       <c r="F10" t="n">
-        <v>101.87950281</v>
+        <v>101.920226</v>
       </c>
       <c r="G10" t="n">
-        <v>101.38829669</v>
+        <v>102.007919</v>
       </c>
       <c r="H10" t="n">
-        <v>100.58763051</v>
+        <v>100.303305199999</v>
       </c>
       <c r="I10" t="n">
-        <v>101.40613321</v>
+        <v>101.230981</v>
       </c>
       <c r="J10" t="n">
-        <v>103.67159382</v>
+        <v>102.728532799999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.41054659</v>
+        <v>99.62094587</v>
       </c>
       <c r="C11" t="n">
-        <v>104.35370306</v>
+        <v>103.583013399999</v>
       </c>
       <c r="D11" t="n">
-        <v>104.26179446</v>
+        <v>104.832362799999</v>
       </c>
       <c r="E11" t="n">
-        <v>101.59724334</v>
+        <v>101.7772228</v>
       </c>
       <c r="F11" t="n">
-        <v>101.76511296</v>
+        <v>102.095946699999</v>
       </c>
       <c r="G11" t="n">
-        <v>101.6063177</v>
+        <v>102.0993502</v>
       </c>
       <c r="H11" t="n">
-        <v>100.57371954</v>
+        <v>100.3908897</v>
       </c>
       <c r="I11" t="n">
-        <v>101.35171008</v>
+        <v>101.3384795</v>
       </c>
       <c r="J11" t="n">
-        <v>102.81102094</v>
+        <v>103.042975799999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.75375639000001</v>
+        <v>100.017771</v>
       </c>
       <c r="C12" t="n">
-        <v>104.47656284</v>
+        <v>104.2330252</v>
       </c>
       <c r="D12" t="n">
-        <v>104.31380476</v>
+        <v>104.3508426</v>
       </c>
       <c r="E12" t="n">
-        <v>101.46892177</v>
+        <v>102.0192928</v>
       </c>
       <c r="F12" t="n">
-        <v>101.33977315</v>
+        <v>102.2522581</v>
       </c>
       <c r="G12" t="n">
-        <v>101.32404109</v>
+        <v>102.2166153</v>
       </c>
       <c r="H12" t="n">
-        <v>100.3850842</v>
+        <v>100.3474622</v>
       </c>
       <c r="I12" t="n">
-        <v>101.2623754</v>
+        <v>101.3799825</v>
       </c>
       <c r="J12" t="n">
-        <v>101.45349762</v>
+        <v>103.2368037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.64599415000001</v>
+        <v>100.9358242</v>
       </c>
       <c r="C13" t="n">
-        <v>104.4165478</v>
+        <v>103.9984945</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3345838</v>
+        <v>104.5936394</v>
       </c>
       <c r="E13" t="n">
-        <v>101.547064</v>
+        <v>102.068891</v>
       </c>
       <c r="F13" t="n">
-        <v>101.920226</v>
+        <v>102.0765455</v>
       </c>
       <c r="G13" t="n">
-        <v>102.007919</v>
+        <v>102.3193937</v>
       </c>
       <c r="H13" t="n">
-        <v>100.303305199999</v>
+        <v>100.4116502</v>
       </c>
       <c r="I13" t="n">
-        <v>101.230981</v>
+        <v>101.1294089</v>
       </c>
       <c r="J13" t="n">
-        <v>102.728532799999</v>
+        <v>102.2008019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.8310322</v>
+        <v>102.3480051</v>
       </c>
       <c r="C14" t="n">
-        <v>101.7832288</v>
+        <v>104.7912626</v>
       </c>
       <c r="D14" t="n">
-        <v>107.1891257</v>
+        <v>104.9693805</v>
       </c>
       <c r="E14" t="n">
-        <v>102.8332897</v>
+        <v>102.2630961</v>
       </c>
       <c r="F14" t="n">
-        <v>101.8683825</v>
+        <v>102.5490554</v>
       </c>
       <c r="G14" t="n">
-        <v>102.2515265</v>
+        <v>103.3371405</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4788541</v>
+        <v>100.5988316</v>
       </c>
       <c r="I14" t="n">
-        <v>101.2302301</v>
+        <v>101.0522495</v>
       </c>
       <c r="J14" t="n">
-        <v>100.2879747</v>
+        <v>102.4786144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.3266458</v>
+        <v>101.66105415</v>
       </c>
       <c r="C15" t="n">
-        <v>101.7322638</v>
+        <v>103.11284025</v>
       </c>
       <c r="D15" t="n">
-        <v>106.9506604</v>
+        <v>105.11959</v>
       </c>
       <c r="E15" t="n">
-        <v>102.8018422</v>
+        <v>102.54399005</v>
       </c>
       <c r="F15" t="n">
-        <v>101.7345582</v>
+        <v>100.80201168</v>
       </c>
       <c r="G15" t="n">
-        <v>102.0407436</v>
+        <v>101.77521118</v>
       </c>
       <c r="H15" t="n">
-        <v>101.5366527</v>
+        <v>100.47962343</v>
       </c>
       <c r="I15" t="n">
-        <v>101.1580093</v>
+        <v>101.15135453</v>
       </c>
       <c r="J15" t="n">
-        <v>99.82034063</v>
+        <v>97.621923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.1591878</v>
+        <v>101.9979867</v>
       </c>
       <c r="C16" t="n">
-        <v>101.9161302</v>
+        <v>102.8657849</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5813459</v>
+        <v>105.3343772</v>
       </c>
       <c r="E16" t="n">
-        <v>102.7886391</v>
+        <v>102.4414958</v>
       </c>
       <c r="F16" t="n">
-        <v>101.8482176</v>
+        <v>100.9171446</v>
       </c>
       <c r="G16" t="n">
-        <v>102.0643075</v>
+        <v>102.3487233</v>
       </c>
       <c r="H16" t="n">
-        <v>101.5840335</v>
+        <v>100.6699338</v>
       </c>
       <c r="I16" t="n">
-        <v>101.2575612</v>
+        <v>101.2521867</v>
       </c>
       <c r="J16" t="n">
-        <v>100.3089977</v>
+        <v>97.58723037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.3480051</v>
+        <v>101.7827362</v>
       </c>
       <c r="C17" t="n">
-        <v>104.7912626</v>
+        <v>103.4248958</v>
       </c>
       <c r="D17" t="n">
-        <v>104.9693805</v>
+        <v>105.6969443</v>
       </c>
       <c r="E17" t="n">
-        <v>102.2630961</v>
+        <v>102.420187</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5490554</v>
+        <v>101.1657978</v>
       </c>
       <c r="G17" t="n">
-        <v>103.3371405</v>
+        <v>102.5916559</v>
       </c>
       <c r="H17" t="n">
-        <v>100.5988316</v>
+        <v>100.8473605</v>
       </c>
       <c r="I17" t="n">
-        <v>101.0522495</v>
+        <v>101.310334</v>
       </c>
       <c r="J17" t="n">
-        <v>102.4786144</v>
+        <v>98.17337912000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.66105415</v>
+        <v>101.1200346</v>
       </c>
       <c r="C18" t="n">
-        <v>103.11284025</v>
+        <v>102.8627635</v>
       </c>
       <c r="D18" t="n">
-        <v>105.11959</v>
+        <v>105.8522913</v>
       </c>
       <c r="E18" t="n">
-        <v>102.54399005</v>
+        <v>102.4620425</v>
       </c>
       <c r="F18" t="n">
-        <v>100.80201168</v>
+        <v>101.5170654</v>
       </c>
       <c r="G18" t="n">
-        <v>101.77521118</v>
+        <v>102.5663739</v>
       </c>
       <c r="H18" t="n">
-        <v>100.47962343</v>
+        <v>101.0068592</v>
       </c>
       <c r="I18" t="n">
-        <v>101.15135453</v>
+        <v>101.3300754</v>
       </c>
       <c r="J18" t="n">
-        <v>97.621923</v>
+        <v>99.50122564999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.9979867</v>
+        <v>100.1498051</v>
       </c>
       <c r="C19" t="n">
-        <v>102.8657849</v>
+        <v>102.7797404</v>
       </c>
       <c r="D19" t="n">
-        <v>105.3343772</v>
+        <v>105.7083957</v>
       </c>
       <c r="E19" t="n">
-        <v>102.4414958</v>
+        <v>102.5196776</v>
       </c>
       <c r="F19" t="n">
-        <v>100.9171446</v>
+        <v>101.4958174</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3487233</v>
+        <v>102.5126431</v>
       </c>
       <c r="H19" t="n">
-        <v>100.6699338</v>
+        <v>101.0764827</v>
       </c>
       <c r="I19" t="n">
-        <v>101.2521867</v>
+        <v>101.4098871</v>
       </c>
       <c r="J19" t="n">
-        <v>97.58723037</v>
+        <v>99.78639445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.7827362</v>
+        <v>99.76466455000001</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4248958</v>
+        <v>101.3172763</v>
       </c>
       <c r="D20" t="n">
-        <v>105.6969443</v>
+        <v>105.4965096</v>
       </c>
       <c r="E20" t="n">
-        <v>102.420187</v>
+        <v>102.496308</v>
       </c>
       <c r="F20" t="n">
-        <v>101.1657978</v>
+        <v>101.4067418</v>
       </c>
       <c r="G20" t="n">
-        <v>102.5916559</v>
+        <v>102.4812083</v>
       </c>
       <c r="H20" t="n">
-        <v>100.8473605</v>
+        <v>101.1371374</v>
       </c>
       <c r="I20" t="n">
-        <v>101.310334</v>
+        <v>101.4013752</v>
       </c>
       <c r="J20" t="n">
-        <v>98.17337912000001</v>
+        <v>99.85376359999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.1200346</v>
+        <v>100.7211743</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8627635</v>
+        <v>101.3673791</v>
       </c>
       <c r="D21" t="n">
-        <v>105.8522913</v>
+        <v>105.9313985</v>
       </c>
       <c r="E21" t="n">
-        <v>102.4620425</v>
+        <v>102.6752945</v>
       </c>
       <c r="F21" t="n">
-        <v>101.5170654</v>
+        <v>101.7672098</v>
       </c>
       <c r="G21" t="n">
-        <v>102.5663739</v>
+        <v>102.5206019</v>
       </c>
       <c r="H21" t="n">
-        <v>101.0068592</v>
+        <v>101.2537308</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3300754</v>
+        <v>101.2581856</v>
       </c>
       <c r="J21" t="n">
-        <v>99.50122564999999</v>
+        <v>100.4215176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1498051</v>
+        <v>100.5278103</v>
       </c>
       <c r="C22" t="n">
-        <v>102.7797404</v>
+        <v>101.4143526</v>
       </c>
       <c r="D22" t="n">
-        <v>105.7083957</v>
+        <v>107.5769354</v>
       </c>
       <c r="E22" t="n">
-        <v>102.5196776</v>
+        <v>102.7522328</v>
       </c>
       <c r="F22" t="n">
-        <v>101.4958174</v>
+        <v>101.6320063</v>
       </c>
       <c r="G22" t="n">
-        <v>102.5126431</v>
+        <v>102.2806726</v>
       </c>
       <c r="H22" t="n">
-        <v>101.0764827</v>
+        <v>101.3678238</v>
       </c>
       <c r="I22" t="n">
-        <v>101.4098871</v>
+        <v>101.2960784</v>
       </c>
       <c r="J22" t="n">
-        <v>99.78639445</v>
+        <v>99.62766842000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.76466455000001</v>
+        <v>100.8310322</v>
       </c>
       <c r="C23" t="n">
-        <v>101.3172763</v>
+        <v>101.7832288</v>
       </c>
       <c r="D23" t="n">
-        <v>105.4965096</v>
+        <v>107.1891257</v>
       </c>
       <c r="E23" t="n">
-        <v>102.496308</v>
+        <v>102.8332897</v>
       </c>
       <c r="F23" t="n">
-        <v>101.4067418</v>
+        <v>101.8683825</v>
       </c>
       <c r="G23" t="n">
-        <v>102.4812083</v>
+        <v>102.2515265</v>
       </c>
       <c r="H23" t="n">
-        <v>101.1371374</v>
+        <v>101.4788541</v>
       </c>
       <c r="I23" t="n">
-        <v>101.4013752</v>
+        <v>101.2302301</v>
       </c>
       <c r="J23" t="n">
-        <v>99.85376359999999</v>
+        <v>100.2879747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.7211743</v>
+        <v>101.3266458</v>
       </c>
       <c r="C24" t="n">
-        <v>101.3673791</v>
+        <v>101.7322638</v>
       </c>
       <c r="D24" t="n">
-        <v>105.9313985</v>
+        <v>106.9506604</v>
       </c>
       <c r="E24" t="n">
-        <v>102.6752945</v>
+        <v>102.8018422</v>
       </c>
       <c r="F24" t="n">
-        <v>101.7672098</v>
+        <v>101.7345582</v>
       </c>
       <c r="G24" t="n">
-        <v>102.5206019</v>
+        <v>102.0407436</v>
       </c>
       <c r="H24" t="n">
-        <v>101.2537308</v>
+        <v>101.5366527</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2581856</v>
+        <v>101.1580093</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4215176</v>
+        <v>99.82034063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.5278103</v>
+        <v>101.1591878</v>
       </c>
       <c r="C25" t="n">
-        <v>101.4143526</v>
+        <v>101.9161302</v>
       </c>
       <c r="D25" t="n">
-        <v>107.5769354</v>
+        <v>106.5813459</v>
       </c>
       <c r="E25" t="n">
-        <v>102.7522328</v>
+        <v>102.7886391</v>
       </c>
       <c r="F25" t="n">
-        <v>101.6320063</v>
+        <v>101.8482176</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2806726</v>
+        <v>102.0643075</v>
       </c>
       <c r="H25" t="n">
-        <v>101.3678238</v>
+        <v>101.5840335</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2960784</v>
+        <v>101.2575612</v>
       </c>
       <c r="J25" t="n">
-        <v>99.62766842000001</v>
+        <v>100.3089977</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.20302352</v>
+        <v>100.1660823</v>
       </c>
       <c r="C26" t="n">
-        <v>101.25336157</v>
+        <v>101.207864</v>
       </c>
       <c r="D26" t="n">
-        <v>102.57243095</v>
+        <v>106.1635625</v>
       </c>
       <c r="E26" t="n">
-        <v>102.54121553</v>
+        <v>102.6603007</v>
       </c>
       <c r="F26" t="n">
-        <v>102.54315116</v>
+        <v>101.4679661</v>
       </c>
       <c r="G26" t="n">
-        <v>102.48687463</v>
+        <v>100.9055795</v>
       </c>
       <c r="H26" t="n">
-        <v>101.51572921</v>
+        <v>101.5253402</v>
       </c>
       <c r="I26" t="n">
-        <v>101.42180894</v>
+        <v>101.3593062</v>
       </c>
       <c r="J26" t="n">
-        <v>102.94136442</v>
+        <v>100.1650658</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.63444376</v>
+        <v>101.5236434</v>
       </c>
       <c r="C27" t="n">
-        <v>101.47621982</v>
+        <v>101.664213</v>
       </c>
       <c r="D27" t="n">
-        <v>102.56211094</v>
+        <v>106.0283922</v>
       </c>
       <c r="E27" t="n">
-        <v>102.38246828</v>
+        <v>102.2422538</v>
       </c>
       <c r="F27" t="n">
-        <v>102.175041</v>
+        <v>102.9038877</v>
       </c>
       <c r="G27" t="n">
-        <v>102.46812709</v>
+        <v>103.6958673</v>
       </c>
       <c r="H27" t="n">
-        <v>101.48031656</v>
+        <v>101.829904</v>
       </c>
       <c r="I27" t="n">
-        <v>101.35176045</v>
+        <v>101.0607319</v>
       </c>
       <c r="J27" t="n">
-        <v>102.45511027</v>
+        <v>103.6166901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.34565118</v>
+        <v>100.3252766</v>
       </c>
       <c r="C28" t="n">
-        <v>101.62149528</v>
+        <v>101.1889174</v>
       </c>
       <c r="D28" t="n">
-        <v>102.53851815</v>
+        <v>105.7383832</v>
       </c>
       <c r="E28" t="n">
-        <v>102.22402078</v>
+        <v>102.2441205</v>
       </c>
       <c r="F28" t="n">
-        <v>101.86069849</v>
+        <v>102.0566543</v>
       </c>
       <c r="G28" t="n">
-        <v>102.34911222</v>
+        <v>102.1593261</v>
       </c>
       <c r="H28" t="n">
-        <v>101.4495633</v>
+        <v>101.587942</v>
       </c>
       <c r="I28" t="n">
-        <v>101.51827462</v>
+        <v>101.0661122</v>
       </c>
       <c r="J28" t="n">
-        <v>102.426221</v>
+        <v>102.0320732</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.1660823</v>
+        <v>101.1</v>
       </c>
       <c r="C29" t="n">
-        <v>101.207864</v>
+        <v>100.9</v>
       </c>
       <c r="D29" t="n">
-        <v>106.1635625</v>
+        <v>105.2</v>
       </c>
       <c r="E29" t="n">
-        <v>102.6603007</v>
+        <v>102.2</v>
       </c>
       <c r="F29" t="n">
-        <v>101.4679661</v>
+        <v>101.8</v>
       </c>
       <c r="G29" t="n">
-        <v>100.9055795</v>
+        <v>102</v>
       </c>
       <c r="H29" t="n">
-        <v>101.5253402</v>
+        <v>101.5</v>
       </c>
       <c r="I29" t="n">
-        <v>101.3593062</v>
+        <v>101.1</v>
       </c>
       <c r="J29" t="n">
-        <v>100.1650658</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.5236434</v>
+        <v>101.8</v>
       </c>
       <c r="C30" t="n">
-        <v>101.664213</v>
+        <v>101</v>
       </c>
       <c r="D30" t="n">
-        <v>106.0283922</v>
+        <v>105.1</v>
       </c>
       <c r="E30" t="n">
-        <v>102.2422538</v>
+        <v>102.2</v>
       </c>
       <c r="F30" t="n">
-        <v>102.9038877</v>
+        <v>101.8</v>
       </c>
       <c r="G30" t="n">
-        <v>103.6958673</v>
+        <v>101.9</v>
       </c>
       <c r="H30" t="n">
-        <v>101.829904</v>
+        <v>101.5</v>
       </c>
       <c r="I30" t="n">
-        <v>101.0607319</v>
+        <v>101.1</v>
       </c>
       <c r="J30" t="n">
-        <v>103.6166901</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.3252766</v>
+        <v>102.40455749</v>
       </c>
       <c r="C31" t="n">
-        <v>101.1889174</v>
+        <v>100.88445805</v>
       </c>
       <c r="D31" t="n">
-        <v>105.7383832</v>
+        <v>104.95491446</v>
       </c>
       <c r="E31" t="n">
-        <v>102.2441205</v>
+        <v>102.26476044</v>
       </c>
       <c r="F31" t="n">
-        <v>102.0566543</v>
+        <v>101.85362997</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1593261</v>
+        <v>101.8482365</v>
       </c>
       <c r="H31" t="n">
-        <v>101.587942</v>
+        <v>101.52117468</v>
       </c>
       <c r="I31" t="n">
-        <v>101.0661122</v>
+        <v>101.12698356</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0320732</v>
+        <v>100.83553396</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.1</v>
+        <v>103.01158004</v>
       </c>
       <c r="C32" t="n">
-        <v>100.9</v>
+        <v>101.22131877</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2</v>
+        <v>104.64135833</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2</v>
+        <v>102.3733268</v>
       </c>
       <c r="F32" t="n">
-        <v>101.8</v>
+        <v>102.0594179</v>
       </c>
       <c r="G32" t="n">
-        <v>102</v>
+        <v>102.33099398</v>
       </c>
       <c r="H32" t="n">
-        <v>101.5</v>
+        <v>101.55165137</v>
       </c>
       <c r="I32" t="n">
-        <v>101.1</v>
+        <v>101.19623943</v>
       </c>
       <c r="J32" t="n">
-        <v>101.1</v>
+        <v>101.03974767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.8</v>
+        <v>102.65993743</v>
       </c>
       <c r="C33" t="n">
-        <v>101</v>
+        <v>101.16387441</v>
       </c>
       <c r="D33" t="n">
-        <v>105.1</v>
+        <v>104.28106975</v>
       </c>
       <c r="E33" t="n">
-        <v>102.2</v>
+        <v>102.53667305</v>
       </c>
       <c r="F33" t="n">
-        <v>101.8</v>
+        <v>102.30314095</v>
       </c>
       <c r="G33" t="n">
-        <v>101.9</v>
+        <v>102.60681374</v>
       </c>
       <c r="H33" t="n">
-        <v>101.5</v>
+        <v>101.56162626</v>
       </c>
       <c r="I33" t="n">
-        <v>101.1</v>
+        <v>101.31863382</v>
       </c>
       <c r="J33" t="n">
-        <v>100.7</v>
+        <v>101.85064712</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.40455749</v>
+        <v>102.78876282</v>
       </c>
       <c r="C34" t="n">
-        <v>100.88445805</v>
+        <v>100.72271186</v>
       </c>
       <c r="D34" t="n">
-        <v>104.95491446</v>
+        <v>102.6510413</v>
       </c>
       <c r="E34" t="n">
-        <v>102.26476044</v>
+        <v>102.58121872</v>
       </c>
       <c r="F34" t="n">
-        <v>101.85362997</v>
+        <v>102.47239413</v>
       </c>
       <c r="G34" t="n">
-        <v>101.8482365</v>
+        <v>102.16713171</v>
       </c>
       <c r="H34" t="n">
-        <v>101.52117468</v>
+        <v>101.59618747</v>
       </c>
       <c r="I34" t="n">
-        <v>101.12698356</v>
+        <v>101.18869994</v>
       </c>
       <c r="J34" t="n">
-        <v>100.83553396</v>
+        <v>103.04371004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.01158004</v>
+        <v>103.20302352</v>
       </c>
       <c r="C35" t="n">
-        <v>101.22131877</v>
+        <v>101.25336157</v>
       </c>
       <c r="D35" t="n">
-        <v>104.64135833</v>
+        <v>102.57243095</v>
       </c>
       <c r="E35" t="n">
-        <v>102.3733268</v>
+        <v>102.54121553</v>
       </c>
       <c r="F35" t="n">
-        <v>102.0594179</v>
+        <v>102.54315116</v>
       </c>
       <c r="G35" t="n">
-        <v>102.33099398</v>
+        <v>102.48687463</v>
       </c>
       <c r="H35" t="n">
-        <v>101.55165137</v>
+        <v>101.51572921</v>
       </c>
       <c r="I35" t="n">
-        <v>101.19623943</v>
+        <v>101.42180894</v>
       </c>
       <c r="J35" t="n">
-        <v>101.03974767</v>
+        <v>102.94136442</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.65993743</v>
+        <v>101.63444376</v>
       </c>
       <c r="C36" t="n">
-        <v>101.16387441</v>
+        <v>101.47621982</v>
       </c>
       <c r="D36" t="n">
-        <v>104.28106975</v>
+        <v>102.56211094</v>
       </c>
       <c r="E36" t="n">
-        <v>102.53667305</v>
+        <v>102.38246828</v>
       </c>
       <c r="F36" t="n">
-        <v>102.30314095</v>
+        <v>102.175041</v>
       </c>
       <c r="G36" t="n">
-        <v>102.60681374</v>
+        <v>102.46812709</v>
       </c>
       <c r="H36" t="n">
-        <v>101.56162626</v>
+        <v>101.48031656</v>
       </c>
       <c r="I36" t="n">
-        <v>101.31863382</v>
+        <v>101.35176045</v>
       </c>
       <c r="J36" t="n">
-        <v>101.85064712</v>
+        <v>102.45511027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.78876282</v>
+        <v>99.34565118</v>
       </c>
       <c r="C37" t="n">
-        <v>100.72271186</v>
+        <v>101.62149528</v>
       </c>
       <c r="D37" t="n">
-        <v>102.6510413</v>
+        <v>102.53851815</v>
       </c>
       <c r="E37" t="n">
-        <v>102.58121872</v>
+        <v>102.22402078</v>
       </c>
       <c r="F37" t="n">
-        <v>102.47239413</v>
+        <v>101.86069849</v>
       </c>
       <c r="G37" t="n">
-        <v>102.16713171</v>
+        <v>102.34911222</v>
       </c>
       <c r="H37" t="n">
-        <v>101.59618747</v>
+        <v>101.4495633</v>
       </c>
       <c r="I37" t="n">
-        <v>101.18869994</v>
+        <v>101.51827462</v>
       </c>
       <c r="J37" t="n">
-        <v>103.04371004</v>
+        <v>102.426221</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>96.50134004</v>
+        <v>98.73380237000001</v>
       </c>
       <c r="C38" t="n">
-        <v>105.54339273</v>
+        <v>102.26148906</v>
       </c>
       <c r="D38" t="n">
-        <v>102.11425657</v>
+        <v>102.65922147</v>
       </c>
       <c r="E38" t="n">
-        <v>100.52168601</v>
+        <v>102.06716231</v>
       </c>
       <c r="F38" t="n">
-        <v>103.7551002</v>
+        <v>101.74041115</v>
       </c>
       <c r="G38" t="n">
-        <v>101.91072563</v>
+        <v>102.88268938</v>
       </c>
       <c r="H38" t="n">
-        <v>100.57551753</v>
+        <v>101.52378355</v>
       </c>
       <c r="I38" t="n">
-        <v>101.17436808</v>
+        <v>101.58328863</v>
       </c>
       <c r="J38" t="n">
-        <v>111.38165308</v>
+        <v>102.03530904</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.2239295</v>
+        <v>98.7958782</v>
       </c>
       <c r="C39" t="n">
-        <v>104.53688318</v>
+        <v>101.99966756</v>
       </c>
       <c r="D39" t="n">
-        <v>102.01046582</v>
+        <v>102.75252659</v>
       </c>
       <c r="E39" t="n">
-        <v>100.43474942</v>
+        <v>102.20856206</v>
       </c>
       <c r="F39" t="n">
-        <v>104.48842578</v>
+        <v>101.48676502</v>
       </c>
       <c r="G39" t="n">
-        <v>101.73959667</v>
+        <v>102.36395475</v>
       </c>
       <c r="H39" t="n">
-        <v>100.42781081</v>
+        <v>101.30730978</v>
       </c>
       <c r="I39" t="n">
-        <v>101.07232382</v>
+        <v>101.95348704</v>
       </c>
       <c r="J39" t="n">
-        <v>113.93497729</v>
+        <v>101.21503347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.25218282</v>
+        <v>100.05665967</v>
       </c>
       <c r="C40" t="n">
-        <v>104.42667102</v>
+        <v>101.93482484</v>
       </c>
       <c r="D40" t="n">
-        <v>102.06129535</v>
+        <v>102.6848831</v>
       </c>
       <c r="E40" t="n">
-        <v>100.52058575</v>
+        <v>102.06200448</v>
       </c>
       <c r="F40" t="n">
-        <v>104.45517388</v>
+        <v>102.27640249</v>
       </c>
       <c r="G40" t="n">
-        <v>101.81485747</v>
+        <v>102.41963143</v>
       </c>
       <c r="H40" t="n">
-        <v>100.35862949</v>
+        <v>101.18318224</v>
       </c>
       <c r="I40" t="n">
-        <v>100.80112337</v>
+        <v>101.96188825</v>
       </c>
       <c r="J40" t="n">
-        <v>112.89845976</v>
+        <v>103.47824792</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.73380237000001</v>
+        <v>99.47882430999999</v>
       </c>
       <c r="C41" t="n">
-        <v>102.26148906</v>
+        <v>101.91912226</v>
       </c>
       <c r="D41" t="n">
-        <v>102.65922147</v>
+        <v>102.58521197</v>
       </c>
       <c r="E41" t="n">
-        <v>102.06716231</v>
+        <v>101.95935461</v>
       </c>
       <c r="F41" t="n">
-        <v>101.74041115</v>
+        <v>102.53989216</v>
       </c>
       <c r="G41" t="n">
-        <v>102.88268938</v>
+        <v>102.51776371</v>
       </c>
       <c r="H41" t="n">
-        <v>101.52378355</v>
+        <v>101.08710801</v>
       </c>
       <c r="I41" t="n">
-        <v>101.58328863</v>
+        <v>101.82512257</v>
       </c>
       <c r="J41" t="n">
-        <v>102.03530904</v>
+        <v>104.7493674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.7958782</v>
+        <v>99.10714686999999</v>
       </c>
       <c r="C42" t="n">
-        <v>101.99966756</v>
+        <v>102.09851447</v>
       </c>
       <c r="D42" t="n">
-        <v>102.75252659</v>
+        <v>102.46379061</v>
       </c>
       <c r="E42" t="n">
-        <v>102.20856206</v>
+        <v>101.81941718</v>
       </c>
       <c r="F42" t="n">
-        <v>101.48676502</v>
+        <v>102.74282264</v>
       </c>
       <c r="G42" t="n">
-        <v>102.36395475</v>
+        <v>102.58831274</v>
       </c>
       <c r="H42" t="n">
-        <v>101.30730978</v>
+        <v>100.96503192</v>
       </c>
       <c r="I42" t="n">
-        <v>101.95348704</v>
+        <v>101.73686791</v>
       </c>
       <c r="J42" t="n">
-        <v>101.21503347</v>
+        <v>105.75907957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.05665967</v>
+        <v>98.12267039</v>
       </c>
       <c r="C43" t="n">
-        <v>101.93482484</v>
+        <v>102.7015517</v>
       </c>
       <c r="D43" t="n">
-        <v>102.6848831</v>
+        <v>102.54184867</v>
       </c>
       <c r="E43" t="n">
-        <v>102.06200448</v>
+        <v>101.59400018</v>
       </c>
       <c r="F43" t="n">
-        <v>102.27640249</v>
+        <v>102.68144539</v>
       </c>
       <c r="G43" t="n">
-        <v>102.41963143</v>
+        <v>102.3980856</v>
       </c>
       <c r="H43" t="n">
-        <v>101.18318224</v>
+        <v>100.79492901</v>
       </c>
       <c r="I43" t="n">
-        <v>101.96188825</v>
+        <v>101.8118597</v>
       </c>
       <c r="J43" t="n">
-        <v>103.47824792</v>
+        <v>106.14755919</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.47882430999999</v>
+        <v>97.87500008000001</v>
       </c>
       <c r="C44" t="n">
-        <v>101.91912226</v>
+        <v>103.35762859</v>
       </c>
       <c r="D44" t="n">
-        <v>102.58521197</v>
+        <v>102.57275529</v>
       </c>
       <c r="E44" t="n">
-        <v>101.95935461</v>
+        <v>101.45395042</v>
       </c>
       <c r="F44" t="n">
-        <v>102.53989216</v>
+        <v>102.78264084</v>
       </c>
       <c r="G44" t="n">
-        <v>102.51776371</v>
+        <v>102.25326614</v>
       </c>
       <c r="H44" t="n">
-        <v>101.08710801</v>
+        <v>100.79774293</v>
       </c>
       <c r="I44" t="n">
-        <v>101.82512257</v>
+        <v>101.78782951</v>
       </c>
       <c r="J44" t="n">
-        <v>104.7493674</v>
+        <v>106.69154099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.10714686999999</v>
+        <v>97.67162442</v>
       </c>
       <c r="C45" t="n">
-        <v>102.09851447</v>
+        <v>104.6544649</v>
       </c>
       <c r="D45" t="n">
-        <v>102.46379061</v>
+        <v>102.34508954</v>
       </c>
       <c r="E45" t="n">
-        <v>101.81941718</v>
+        <v>101.04331214</v>
       </c>
       <c r="F45" t="n">
-        <v>102.74282264</v>
+        <v>102.8434701</v>
       </c>
       <c r="G45" t="n">
-        <v>102.58831274</v>
+        <v>102.1237375</v>
       </c>
       <c r="H45" t="n">
-        <v>100.96503192</v>
+        <v>100.70209216</v>
       </c>
       <c r="I45" t="n">
-        <v>101.73686791</v>
+        <v>101.59377869</v>
       </c>
       <c r="J45" t="n">
-        <v>105.75907957</v>
+        <v>107.27918188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.12267039</v>
+        <v>97.05831556</v>
       </c>
       <c r="C46" t="n">
-        <v>102.7015517</v>
+        <v>105.77242343</v>
       </c>
       <c r="D46" t="n">
-        <v>102.54184867</v>
+        <v>102.2090093</v>
       </c>
       <c r="E46" t="n">
-        <v>101.59400018</v>
+        <v>100.72946141</v>
       </c>
       <c r="F46" t="n">
-        <v>102.68144539</v>
+        <v>103.02304182</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3980856</v>
+        <v>101.74833949</v>
       </c>
       <c r="H46" t="n">
-        <v>100.79492901</v>
+        <v>100.58943129</v>
       </c>
       <c r="I46" t="n">
-        <v>101.8118597</v>
+        <v>101.64403077</v>
       </c>
       <c r="J46" t="n">
-        <v>106.14755919</v>
+        <v>108.38894898</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.87500008000001</v>
+        <v>96.50134004</v>
       </c>
       <c r="C47" t="n">
-        <v>103.35762859</v>
+        <v>105.54339273</v>
       </c>
       <c r="D47" t="n">
-        <v>102.57275529</v>
+        <v>102.11425657</v>
       </c>
       <c r="E47" t="n">
-        <v>101.45395042</v>
+        <v>100.52168601</v>
       </c>
       <c r="F47" t="n">
-        <v>102.78264084</v>
+        <v>103.7551002</v>
       </c>
       <c r="G47" t="n">
-        <v>102.25326614</v>
+        <v>101.91072563</v>
       </c>
       <c r="H47" t="n">
-        <v>100.79774293</v>
+        <v>100.57551753</v>
       </c>
       <c r="I47" t="n">
-        <v>101.78782951</v>
+        <v>101.17436808</v>
       </c>
       <c r="J47" t="n">
-        <v>106.69154099</v>
+        <v>111.38165308</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.67162442</v>
+        <v>97.2239295</v>
       </c>
       <c r="C48" t="n">
-        <v>104.6544649</v>
+        <v>104.53688318</v>
       </c>
       <c r="D48" t="n">
-        <v>102.34508954</v>
+        <v>102.01046582</v>
       </c>
       <c r="E48" t="n">
-        <v>101.04331214</v>
+        <v>100.43474942</v>
       </c>
       <c r="F48" t="n">
-        <v>102.8434701</v>
+        <v>104.48842578</v>
       </c>
       <c r="G48" t="n">
-        <v>102.1237375</v>
+        <v>101.73959667</v>
       </c>
       <c r="H48" t="n">
-        <v>100.70209216</v>
+        <v>100.42781081</v>
       </c>
       <c r="I48" t="n">
-        <v>101.59377869</v>
+        <v>101.07232382</v>
       </c>
       <c r="J48" t="n">
-        <v>107.27918188</v>
+        <v>113.93497729</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.05831556</v>
+        <v>99.25218282</v>
       </c>
       <c r="C49" t="n">
-        <v>105.77242343</v>
+        <v>104.42667102</v>
       </c>
       <c r="D49" t="n">
-        <v>102.2090093</v>
+        <v>102.06129535</v>
       </c>
       <c r="E49" t="n">
-        <v>100.72946141</v>
+        <v>100.52058575</v>
       </c>
       <c r="F49" t="n">
-        <v>103.02304182</v>
+        <v>104.45517388</v>
       </c>
       <c r="G49" t="n">
-        <v>101.74833949</v>
+        <v>101.81485747</v>
       </c>
       <c r="H49" t="n">
-        <v>100.58943129</v>
+        <v>100.35862949</v>
       </c>
       <c r="I49" t="n">
-        <v>101.64403077</v>
+        <v>100.80112337</v>
       </c>
       <c r="J49" t="n">
-        <v>108.38894898</v>
+        <v>112.89845976</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>96.09999999999999</v>
+        <v>100.85037712</v>
       </c>
       <c r="C50" t="n">
-        <v>102.4</v>
+        <v>104.82385123</v>
       </c>
       <c r="D50" t="n">
-        <v>101.5</v>
+        <v>102.2607266</v>
       </c>
       <c r="E50" t="n">
-        <v>99.3</v>
+        <v>100.50736844</v>
       </c>
       <c r="F50" t="n">
-        <v>100.5</v>
+        <v>105.38456885</v>
       </c>
       <c r="G50" t="n">
-        <v>101.1</v>
+        <v>102.23094178</v>
       </c>
       <c r="H50" t="n">
-        <v>99.90000000000001</v>
+        <v>100.23203491</v>
       </c>
       <c r="I50" t="n">
-        <v>99.7</v>
+        <v>100.55069866</v>
       </c>
       <c r="J50" t="n">
-        <v>102.4</v>
+        <v>115.15250628</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>96.09999999999999</v>
+        <v>98.38930411</v>
       </c>
       <c r="C51" t="n">
-        <v>102.5</v>
+        <v>104.42048737</v>
       </c>
       <c r="D51" t="n">
-        <v>101.5</v>
+        <v>102.15199962</v>
       </c>
       <c r="E51" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2606804</v>
       </c>
       <c r="F51" t="n">
-        <v>99.5</v>
+        <v>105.17477579</v>
       </c>
       <c r="G51" t="n">
-        <v>101</v>
+        <v>100.9541732</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>100.06307656</v>
       </c>
       <c r="I51" t="n">
-        <v>99.7</v>
+        <v>100.47144672</v>
       </c>
       <c r="J51" t="n">
-        <v>99.3</v>
+        <v>116.01010261</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>96.90000000000001</v>
+        <v>96.2404672</v>
       </c>
       <c r="C52" t="n">
-        <v>102.2</v>
+        <v>105.34322799</v>
       </c>
       <c r="D52" t="n">
-        <v>101.3</v>
+        <v>102.17198516</v>
       </c>
       <c r="E52" t="n">
-        <v>99.40000000000001</v>
+        <v>99.89101386</v>
       </c>
       <c r="F52" t="n">
-        <v>100.2</v>
+        <v>104.27006363</v>
       </c>
       <c r="G52" t="n">
-        <v>100.9</v>
+        <v>102.5289693</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>100.27427887</v>
       </c>
       <c r="I52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.71829345</v>
       </c>
       <c r="J52" t="n">
-        <v>101.4</v>
+        <v>113.59269936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.85037712</v>
+        <v>95.06963788</v>
       </c>
       <c r="C53" t="n">
-        <v>104.82385123</v>
+        <v>104.81444328</v>
       </c>
       <c r="D53" t="n">
-        <v>102.2607266</v>
+        <v>102.24724384</v>
       </c>
       <c r="E53" t="n">
-        <v>100.50736844</v>
+        <v>99.66366785</v>
       </c>
       <c r="F53" t="n">
-        <v>105.38456885</v>
+        <v>103.29199133</v>
       </c>
       <c r="G53" t="n">
-        <v>102.23094178</v>
+        <v>101.9969751</v>
       </c>
       <c r="H53" t="n">
-        <v>100.23203491</v>
+        <v>100.11194141</v>
       </c>
       <c r="I53" t="n">
-        <v>100.55069866</v>
+        <v>99.61262795</v>
       </c>
       <c r="J53" t="n">
-        <v>115.15250628</v>
+        <v>111.25969302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98.38930411</v>
+        <v>94.91771399</v>
       </c>
       <c r="C54" t="n">
-        <v>104.42048737</v>
+        <v>105.29578052</v>
       </c>
       <c r="D54" t="n">
-        <v>102.15199962</v>
+        <v>102.1182498</v>
       </c>
       <c r="E54" t="n">
-        <v>100.2606804</v>
+        <v>99.53274455</v>
       </c>
       <c r="F54" t="n">
-        <v>105.17477579</v>
+        <v>102.43772471</v>
       </c>
       <c r="G54" t="n">
-        <v>100.9541732</v>
+        <v>102.20131426</v>
       </c>
       <c r="H54" t="n">
-        <v>100.06307656</v>
+        <v>100.10147282</v>
       </c>
       <c r="I54" t="n">
-        <v>100.47144672</v>
+        <v>99.64852008</v>
       </c>
       <c r="J54" t="n">
-        <v>116.01010261</v>
+        <v>108.46724322</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.2404672</v>
+        <v>95.35457821999999</v>
       </c>
       <c r="C55" t="n">
-        <v>105.34322799</v>
+        <v>105.10652508</v>
       </c>
       <c r="D55" t="n">
-        <v>102.17198516</v>
+        <v>101.8535415</v>
       </c>
       <c r="E55" t="n">
-        <v>99.89101386</v>
+        <v>99.41065673</v>
       </c>
       <c r="F55" t="n">
-        <v>104.27006363</v>
+        <v>102.48342187</v>
       </c>
       <c r="G55" t="n">
-        <v>102.5289693</v>
+        <v>101.90267047</v>
       </c>
       <c r="H55" t="n">
-        <v>100.27427887</v>
+        <v>100.03542941</v>
       </c>
       <c r="I55" t="n">
-        <v>99.71829345</v>
+        <v>99.56764139000001</v>
       </c>
       <c r="J55" t="n">
-        <v>113.59269936</v>
+        <v>108.76754609</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>95.06963788</v>
+        <v>95.60375409</v>
       </c>
       <c r="C56" t="n">
-        <v>104.81444328</v>
+        <v>105.06327793</v>
       </c>
       <c r="D56" t="n">
-        <v>102.24724384</v>
+        <v>101.61296072</v>
       </c>
       <c r="E56" t="n">
-        <v>99.66366785</v>
+        <v>99.27508942999999</v>
       </c>
       <c r="F56" t="n">
-        <v>103.29199133</v>
+        <v>102.69585411</v>
       </c>
       <c r="G56" t="n">
-        <v>101.9969751</v>
+        <v>100.32488432</v>
       </c>
       <c r="H56" t="n">
-        <v>100.11194141</v>
+        <v>99.93585517</v>
       </c>
       <c r="I56" t="n">
-        <v>99.61262795</v>
+        <v>99.46810781000001</v>
       </c>
       <c r="J56" t="n">
-        <v>111.25969302</v>
+        <v>110.1598153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>94.91771399</v>
+        <v>96.07595918</v>
       </c>
       <c r="C57" t="n">
-        <v>105.29578052</v>
+        <v>106.09840999</v>
       </c>
       <c r="D57" t="n">
-        <v>102.1182498</v>
+        <v>101.52081485</v>
       </c>
       <c r="E57" t="n">
-        <v>99.53274455</v>
+        <v>99.25045926999999</v>
       </c>
       <c r="F57" t="n">
-        <v>102.43772471</v>
+        <v>102.37561276</v>
       </c>
       <c r="G57" t="n">
-        <v>102.20131426</v>
+        <v>99.97278547000001</v>
       </c>
       <c r="H57" t="n">
-        <v>100.10147282</v>
+        <v>99.90737832000001</v>
       </c>
       <c r="I57" t="n">
-        <v>99.64852008</v>
+        <v>99.54678362999999</v>
       </c>
       <c r="J57" t="n">
-        <v>108.46724322</v>
+        <v>108.82773666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>95.35457821999999</v>
+        <v>96.37115163999999</v>
       </c>
       <c r="C58" t="n">
-        <v>105.10652508</v>
+        <v>104.25417148</v>
       </c>
       <c r="D58" t="n">
-        <v>101.8535415</v>
+        <v>101.48276218</v>
       </c>
       <c r="E58" t="n">
-        <v>99.41065673</v>
+        <v>99.21861214</v>
       </c>
       <c r="F58" t="n">
-        <v>102.48342187</v>
+        <v>101.71747588</v>
       </c>
       <c r="G58" t="n">
-        <v>101.90267047</v>
+        <v>100.65426083</v>
       </c>
       <c r="H58" t="n">
-        <v>100.03542941</v>
+        <v>99.86720926</v>
       </c>
       <c r="I58" t="n">
-        <v>99.56764139000001</v>
+        <v>99.59875327</v>
       </c>
       <c r="J58" t="n">
-        <v>108.76754609</v>
+        <v>106.40244843</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>95.60375409</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>105.06327793</v>
+        <v>102.4</v>
       </c>
       <c r="D59" t="n">
-        <v>101.61296072</v>
+        <v>101.5</v>
       </c>
       <c r="E59" t="n">
-        <v>99.27508942999999</v>
+        <v>99.3</v>
       </c>
       <c r="F59" t="n">
-        <v>102.69585411</v>
+        <v>100.5</v>
       </c>
       <c r="G59" t="n">
-        <v>100.32488432</v>
+        <v>101.1</v>
       </c>
       <c r="H59" t="n">
-        <v>99.93585517</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>99.46810781000001</v>
+        <v>99.7</v>
       </c>
       <c r="J59" t="n">
-        <v>110.1598153</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.07595918</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>106.09840999</v>
+        <v>102.5</v>
       </c>
       <c r="D60" t="n">
-        <v>101.52081485</v>
+        <v>101.5</v>
       </c>
       <c r="E60" t="n">
-        <v>99.25045926999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>102.37561276</v>
+        <v>99.5</v>
       </c>
       <c r="G60" t="n">
-        <v>99.97278547000001</v>
+        <v>101</v>
       </c>
       <c r="H60" t="n">
-        <v>99.90737832000001</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>99.54678362999999</v>
+        <v>99.7</v>
       </c>
       <c r="J60" t="n">
-        <v>108.82773666</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.37115163999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>104.25417148</v>
+        <v>102.2</v>
       </c>
       <c r="D61" t="n">
-        <v>101.48276218</v>
+        <v>101.3</v>
       </c>
       <c r="E61" t="n">
-        <v>99.21861214</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>101.71747588</v>
+        <v>100.2</v>
       </c>
       <c r="G61" t="n">
-        <v>100.65426083</v>
+        <v>100.9</v>
       </c>
       <c r="H61" t="n">
-        <v>99.86720926</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>99.59875327</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>106.40244843</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>107</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E62" t="n">
-        <v>101.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>101.5</v>
+        <v>99.7</v>
       </c>
       <c r="G62" t="n">
-        <v>102.9</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>100.9</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="J62" t="n">
-        <v>99.09999999999999</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>107.6</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D63" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G63" t="n">
         <v>100.6</v>
       </c>
-      <c r="E63" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>103</v>
-      </c>
       <c r="H63" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="I63" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="J63" t="n">
-        <v>101.7</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105</v>
+        <v>102.7</v>
       </c>
       <c r="C64" t="n">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="D64" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="E64" t="n">
-        <v>101.6</v>
+        <v>100.2</v>
       </c>
       <c r="F64" t="n">
-        <v>101.5</v>
+        <v>100.4</v>
       </c>
       <c r="G64" t="n">
-        <v>103.1</v>
+        <v>100.4</v>
       </c>
       <c r="H64" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="I64" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="J64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>95.40000000000001</v>
+        <v>104.9</v>
       </c>
       <c r="C65" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D65" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E65" t="n">
         <v>100.4</v>
       </c>
-      <c r="E65" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="F65" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>101.3</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="I65" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="J65" t="n">
-        <v>101.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>98.09999999999999</v>
+        <v>105.5</v>
       </c>
       <c r="C66" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E66" t="n">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="F66" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="G66" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="H66" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="I66" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="J66" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>102.7</v>
+        <v>105.8</v>
       </c>
       <c r="C67" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E67" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="F67" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I67" t="n">
         <v>100.4</v>
       </c>
-      <c r="G67" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H67" t="n">
-        <v>100</v>
-      </c>
-      <c r="I67" t="n">
-        <v>100.1</v>
-      </c>
       <c r="J67" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>104.9</v>
+        <v>106.9</v>
       </c>
       <c r="C68" t="n">
         <v>98.7</v>
       </c>
       <c r="D68" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="E68" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>101</v>
+      </c>
+      <c r="G68" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I68" t="n">
         <v>100.4</v>
       </c>
-      <c r="F68" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G68" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>100.2</v>
-      </c>
       <c r="J68" t="n">
-        <v>100.1</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>105.5</v>
+        <v>105.9</v>
       </c>
       <c r="C69" t="n">
-        <v>99.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E69" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="F69" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="G69" t="n">
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="H69" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="I69" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="J69" t="n">
-        <v>100.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>105.8</v>
       </c>
       <c r="C70" t="n">
-        <v>99.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D70" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="E70" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="F70" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="G70" t="n">
-        <v>101.5</v>
+        <v>103.2</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="I70" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="J70" t="n">
-        <v>99.59999999999999</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="C71" t="n">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="D71" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E71" t="n">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="F71" t="n">
-        <v>101</v>
+        <v>101.5</v>
       </c>
       <c r="G71" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="H71" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="I71" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="J71" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>105.9</v>
+        <v>107.6</v>
       </c>
       <c r="C72" t="n">
-        <v>96.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E72" t="n">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="F72" t="n">
-        <v>100.8</v>
+        <v>102.3</v>
       </c>
       <c r="G72" t="n">
         <v>103</v>
       </c>
       <c r="H72" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="I72" t="n">
         <v>100.5</v>
       </c>
       <c r="J72" t="n">
-        <v>98</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>105.8</v>
+        <v>105</v>
       </c>
       <c r="C73" t="n">
-        <v>97.2</v>
+        <v>99.5</v>
       </c>
       <c r="D73" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="E73" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="F73" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="G73" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="H73" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="I73" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="J73" t="n">
-        <v>97.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/全国居民消费价格分类指数(上年同月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2449 +483,3095 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.3677811</v>
+        <v>99.62094587</v>
       </c>
       <c r="C2" t="n">
-        <v>99.63220303</v>
+        <v>103.583013399999</v>
       </c>
       <c r="D2" t="n">
-        <v>102.85496216</v>
+        <v>104.832362799999</v>
       </c>
       <c r="E2" t="n">
-        <v>101.3622634</v>
+        <v>101.7772228</v>
       </c>
       <c r="F2" t="n">
-        <v>101.75181582</v>
+        <v>102.095946699999</v>
       </c>
       <c r="G2" t="n">
-        <v>101.66014007</v>
+        <v>102.0993502</v>
       </c>
       <c r="H2" t="n">
-        <v>100.61048814</v>
+        <v>100.3908897</v>
       </c>
       <c r="I2" t="n">
-        <v>101.87948608</v>
+        <v>101.3384795</v>
       </c>
       <c r="J2" t="n">
-        <v>103.62816617</v>
+        <v>103.042975799999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.37432653</v>
+        <v>100.017771</v>
       </c>
       <c r="C3" t="n">
-        <v>100.44691237</v>
+        <v>104.2330252</v>
       </c>
       <c r="D3" t="n">
-        <v>102.76198364</v>
+        <v>104.3508426</v>
       </c>
       <c r="E3" t="n">
-        <v>101.25894077</v>
+        <v>102.0192928</v>
       </c>
       <c r="F3" t="n">
-        <v>102.28432853</v>
+        <v>102.2522581</v>
       </c>
       <c r="G3" t="n">
-        <v>100.92852487</v>
+        <v>102.2166153</v>
       </c>
       <c r="H3" t="n">
-        <v>100.32344714</v>
+        <v>100.3474622</v>
       </c>
       <c r="I3" t="n">
-        <v>101.61921702</v>
+        <v>101.3799825</v>
       </c>
       <c r="J3" t="n">
-        <v>105.78190606</v>
+        <v>103.2368037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.38280583</v>
+        <v>100.9358242</v>
       </c>
       <c r="C4" t="n">
-        <v>101.71973406</v>
+        <v>103.9984945</v>
       </c>
       <c r="D4" t="n">
-        <v>103.0950376</v>
+        <v>104.5936394</v>
       </c>
       <c r="E4" t="n">
-        <v>101.31440658</v>
+        <v>102.068891</v>
       </c>
       <c r="F4" t="n">
-        <v>102.30139085</v>
+        <v>102.0765455</v>
       </c>
       <c r="G4" t="n">
-        <v>101.17129883</v>
+        <v>102.3193937</v>
       </c>
       <c r="H4" t="n">
-        <v>100.37771911</v>
+        <v>100.4116502</v>
       </c>
       <c r="I4" t="n">
-        <v>101.53295003</v>
+        <v>101.1294089</v>
       </c>
       <c r="J4" t="n">
-        <v>105.96972326</v>
+        <v>102.2008019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.62634703000001</v>
+        <v>98.3677811</v>
       </c>
       <c r="C5" t="n">
-        <v>101.65687235</v>
+        <v>99.63220303</v>
       </c>
       <c r="D5" t="n">
-        <v>103.22633349</v>
+        <v>102.85496216</v>
       </c>
       <c r="E5" t="n">
-        <v>101.40580101</v>
+        <v>101.3622634</v>
       </c>
       <c r="F5" t="n">
-        <v>102.32786471</v>
+        <v>101.75181582</v>
       </c>
       <c r="G5" t="n">
-        <v>101.15889361</v>
+        <v>101.66014007</v>
       </c>
       <c r="H5" t="n">
-        <v>100.47687796</v>
+        <v>100.61048814</v>
       </c>
       <c r="I5" t="n">
-        <v>101.47068341</v>
+        <v>101.87948608</v>
       </c>
       <c r="J5" t="n">
-        <v>105.89121243</v>
+        <v>103.62816617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.39784634</v>
+        <v>98.37432653</v>
       </c>
       <c r="C6" t="n">
-        <v>102.22039534</v>
+        <v>100.44691237</v>
       </c>
       <c r="D6" t="n">
-        <v>103.47302026</v>
+        <v>102.76198364</v>
       </c>
       <c r="E6" t="n">
-        <v>101.55706639</v>
+        <v>101.25894077</v>
       </c>
       <c r="F6" t="n">
-        <v>102.0389992</v>
+        <v>102.28432853</v>
       </c>
       <c r="G6" t="n">
-        <v>101.20628465</v>
+        <v>100.92852487</v>
       </c>
       <c r="H6" t="n">
-        <v>100.6386735</v>
+        <v>100.32344714</v>
       </c>
       <c r="I6" t="n">
-        <v>101.54206037</v>
+        <v>101.61921702</v>
       </c>
       <c r="J6" t="n">
-        <v>104.73532494</v>
+        <v>105.78190606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.19672174999999</v>
+        <v>97.38280583</v>
       </c>
       <c r="C7" t="n">
-        <v>102.60774931</v>
+        <v>101.71973406</v>
       </c>
       <c r="D7" t="n">
-        <v>103.77384279</v>
+        <v>103.0950376</v>
       </c>
       <c r="E7" t="n">
-        <v>101.6032951</v>
+        <v>101.31440658</v>
       </c>
       <c r="F7" t="n">
-        <v>101.87950281</v>
+        <v>102.30139085</v>
       </c>
       <c r="G7" t="n">
-        <v>101.38829669</v>
+        <v>101.17129883</v>
       </c>
       <c r="H7" t="n">
-        <v>100.58763051</v>
+        <v>100.37771911</v>
       </c>
       <c r="I7" t="n">
-        <v>101.40613321</v>
+        <v>101.53295003</v>
       </c>
       <c r="J7" t="n">
-        <v>103.67159382</v>
+        <v>105.96972326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.41054659</v>
+        <v>97.62634703000001</v>
       </c>
       <c r="C8" t="n">
-        <v>104.35370306</v>
+        <v>101.65687235</v>
       </c>
       <c r="D8" t="n">
-        <v>104.26179446</v>
+        <v>103.22633349</v>
       </c>
       <c r="E8" t="n">
-        <v>101.59724334</v>
+        <v>101.40580101</v>
       </c>
       <c r="F8" t="n">
-        <v>101.76511296</v>
+        <v>102.32786471</v>
       </c>
       <c r="G8" t="n">
-        <v>101.6063177</v>
+        <v>101.15889361</v>
       </c>
       <c r="H8" t="n">
-        <v>100.57371954</v>
+        <v>100.47687796</v>
       </c>
       <c r="I8" t="n">
-        <v>101.35171008</v>
+        <v>101.47068341</v>
       </c>
       <c r="J8" t="n">
-        <v>102.81102094</v>
+        <v>105.89121243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.75375639000001</v>
+        <v>97.39784634</v>
       </c>
       <c r="C9" t="n">
-        <v>104.47656284</v>
+        <v>102.22039534</v>
       </c>
       <c r="D9" t="n">
-        <v>104.31380476</v>
+        <v>103.47302026</v>
       </c>
       <c r="E9" t="n">
-        <v>101.46892177</v>
+        <v>101.55706639</v>
       </c>
       <c r="F9" t="n">
-        <v>101.33977315</v>
+        <v>102.0389992</v>
       </c>
       <c r="G9" t="n">
-        <v>101.32404109</v>
+        <v>101.20628465</v>
       </c>
       <c r="H9" t="n">
-        <v>100.3850842</v>
+        <v>100.6386735</v>
       </c>
       <c r="I9" t="n">
-        <v>101.2623754</v>
+        <v>101.54206037</v>
       </c>
       <c r="J9" t="n">
-        <v>101.45349762</v>
+        <v>104.73532494</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.64599415000001</v>
+        <v>98.19672174999999</v>
       </c>
       <c r="C10" t="n">
-        <v>104.4165478</v>
+        <v>102.60774931</v>
       </c>
       <c r="D10" t="n">
-        <v>104.3345838</v>
+        <v>103.77384279</v>
       </c>
       <c r="E10" t="n">
-        <v>101.547064</v>
+        <v>101.6032951</v>
       </c>
       <c r="F10" t="n">
-        <v>101.920226</v>
+        <v>101.87950281</v>
       </c>
       <c r="G10" t="n">
-        <v>102.007919</v>
+        <v>101.38829669</v>
       </c>
       <c r="H10" t="n">
-        <v>100.303305199999</v>
+        <v>100.58763051</v>
       </c>
       <c r="I10" t="n">
-        <v>101.230981</v>
+        <v>101.40613321</v>
       </c>
       <c r="J10" t="n">
-        <v>102.728532799999</v>
+        <v>103.67159382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.62094587</v>
+        <v>98.41054659</v>
       </c>
       <c r="C11" t="n">
-        <v>103.583013399999</v>
+        <v>104.35370306</v>
       </c>
       <c r="D11" t="n">
-        <v>104.832362799999</v>
+        <v>104.26179446</v>
       </c>
       <c r="E11" t="n">
-        <v>101.7772228</v>
+        <v>101.59724334</v>
       </c>
       <c r="F11" t="n">
-        <v>102.095946699999</v>
+        <v>101.76511296</v>
       </c>
       <c r="G11" t="n">
-        <v>102.0993502</v>
+        <v>101.6063177</v>
       </c>
       <c r="H11" t="n">
-        <v>100.3908897</v>
+        <v>100.57371954</v>
       </c>
       <c r="I11" t="n">
-        <v>101.3384795</v>
+        <v>101.35171008</v>
       </c>
       <c r="J11" t="n">
-        <v>103.042975799999</v>
+        <v>102.81102094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.017771</v>
+        <v>98.75375639000001</v>
       </c>
       <c r="C12" t="n">
-        <v>104.2330252</v>
+        <v>104.47656284</v>
       </c>
       <c r="D12" t="n">
-        <v>104.3508426</v>
+        <v>104.31380476</v>
       </c>
       <c r="E12" t="n">
-        <v>102.0192928</v>
+        <v>101.46892177</v>
       </c>
       <c r="F12" t="n">
-        <v>102.2522581</v>
+        <v>101.33977315</v>
       </c>
       <c r="G12" t="n">
-        <v>102.2166153</v>
+        <v>101.32404109</v>
       </c>
       <c r="H12" t="n">
-        <v>100.3474622</v>
+        <v>100.3850842</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3799825</v>
+        <v>101.2623754</v>
       </c>
       <c r="J12" t="n">
-        <v>103.2368037</v>
+        <v>101.45349762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.9358242</v>
+        <v>99.64599415000001</v>
       </c>
       <c r="C13" t="n">
-        <v>103.9984945</v>
+        <v>104.4165478</v>
       </c>
       <c r="D13" t="n">
-        <v>104.5936394</v>
+        <v>104.3345838</v>
       </c>
       <c r="E13" t="n">
-        <v>102.068891</v>
+        <v>101.547064</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0765455</v>
+        <v>101.920226</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3193937</v>
+        <v>102.007919</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4116502</v>
+        <v>100.303305199999</v>
       </c>
       <c r="I13" t="n">
-        <v>101.1294089</v>
+        <v>101.230981</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2008019</v>
+        <v>102.728532799999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.3480051</v>
+        <v>100.8310322</v>
       </c>
       <c r="C14" t="n">
-        <v>104.7912626</v>
+        <v>101.7832288</v>
       </c>
       <c r="D14" t="n">
-        <v>104.9693805</v>
+        <v>107.1891257</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2630961</v>
+        <v>102.8332897</v>
       </c>
       <c r="F14" t="n">
-        <v>102.5490554</v>
+        <v>101.8683825</v>
       </c>
       <c r="G14" t="n">
-        <v>103.3371405</v>
+        <v>102.2515265</v>
       </c>
       <c r="H14" t="n">
-        <v>100.5988316</v>
+        <v>101.4788541</v>
       </c>
       <c r="I14" t="n">
-        <v>101.0522495</v>
+        <v>101.2302301</v>
       </c>
       <c r="J14" t="n">
-        <v>102.4786144</v>
+        <v>100.2879747</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.66105415</v>
+        <v>101.3266458</v>
       </c>
       <c r="C15" t="n">
-        <v>103.11284025</v>
+        <v>101.7322638</v>
       </c>
       <c r="D15" t="n">
-        <v>105.11959</v>
+        <v>106.9506604</v>
       </c>
       <c r="E15" t="n">
-        <v>102.54399005</v>
+        <v>102.8018422</v>
       </c>
       <c r="F15" t="n">
-        <v>100.80201168</v>
+        <v>101.7345582</v>
       </c>
       <c r="G15" t="n">
-        <v>101.77521118</v>
+        <v>102.0407436</v>
       </c>
       <c r="H15" t="n">
-        <v>100.47962343</v>
+        <v>101.5366527</v>
       </c>
       <c r="I15" t="n">
-        <v>101.15135453</v>
+        <v>101.1580093</v>
       </c>
       <c r="J15" t="n">
-        <v>97.621923</v>
+        <v>99.82034063</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.9979867</v>
+        <v>101.1591878</v>
       </c>
       <c r="C16" t="n">
-        <v>102.8657849</v>
+        <v>101.9161302</v>
       </c>
       <c r="D16" t="n">
-        <v>105.3343772</v>
+        <v>106.5813459</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4414958</v>
+        <v>102.7886391</v>
       </c>
       <c r="F16" t="n">
-        <v>100.9171446</v>
+        <v>101.8482176</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3487233</v>
+        <v>102.0643075</v>
       </c>
       <c r="H16" t="n">
-        <v>100.6699338</v>
+        <v>101.5840335</v>
       </c>
       <c r="I16" t="n">
-        <v>101.2521867</v>
+        <v>101.2575612</v>
       </c>
       <c r="J16" t="n">
-        <v>97.58723037</v>
+        <v>100.3089977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.7827362</v>
+        <v>102.3480051</v>
       </c>
       <c r="C17" t="n">
-        <v>103.4248958</v>
+        <v>104.7912626</v>
       </c>
       <c r="D17" t="n">
-        <v>105.6969443</v>
+        <v>104.9693805</v>
       </c>
       <c r="E17" t="n">
-        <v>102.420187</v>
+        <v>102.2630961</v>
       </c>
       <c r="F17" t="n">
-        <v>101.1657978</v>
+        <v>102.5490554</v>
       </c>
       <c r="G17" t="n">
-        <v>102.5916559</v>
+        <v>103.3371405</v>
       </c>
       <c r="H17" t="n">
-        <v>100.8473605</v>
+        <v>100.5988316</v>
       </c>
       <c r="I17" t="n">
-        <v>101.310334</v>
+        <v>101.0522495</v>
       </c>
       <c r="J17" t="n">
-        <v>98.17337912000001</v>
+        <v>102.4786144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.1200346</v>
+        <v>101.66105415</v>
       </c>
       <c r="C18" t="n">
-        <v>102.8627635</v>
+        <v>103.11284025</v>
       </c>
       <c r="D18" t="n">
-        <v>105.8522913</v>
+        <v>105.11959</v>
       </c>
       <c r="E18" t="n">
-        <v>102.4620425</v>
+        <v>102.54399005</v>
       </c>
       <c r="F18" t="n">
-        <v>101.5170654</v>
+        <v>100.80201168</v>
       </c>
       <c r="G18" t="n">
-        <v>102.5663739</v>
+        <v>101.77521118</v>
       </c>
       <c r="H18" t="n">
-        <v>101.0068592</v>
+        <v>100.47962343</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3300754</v>
+        <v>101.15135453</v>
       </c>
       <c r="J18" t="n">
-        <v>99.50122564999999</v>
+        <v>97.621923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.1498051</v>
+        <v>101.9979867</v>
       </c>
       <c r="C19" t="n">
-        <v>102.7797404</v>
+        <v>102.8657849</v>
       </c>
       <c r="D19" t="n">
-        <v>105.7083957</v>
+        <v>105.3343772</v>
       </c>
       <c r="E19" t="n">
-        <v>102.5196776</v>
+        <v>102.4414958</v>
       </c>
       <c r="F19" t="n">
-        <v>101.4958174</v>
+        <v>100.9171446</v>
       </c>
       <c r="G19" t="n">
-        <v>102.5126431</v>
+        <v>102.3487233</v>
       </c>
       <c r="H19" t="n">
-        <v>101.0764827</v>
+        <v>100.6699338</v>
       </c>
       <c r="I19" t="n">
-        <v>101.4098871</v>
+        <v>101.2521867</v>
       </c>
       <c r="J19" t="n">
-        <v>99.78639445</v>
+        <v>97.58723037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.76466455000001</v>
+        <v>101.7827362</v>
       </c>
       <c r="C20" t="n">
-        <v>101.3172763</v>
+        <v>103.4248958</v>
       </c>
       <c r="D20" t="n">
-        <v>105.4965096</v>
+        <v>105.6969443</v>
       </c>
       <c r="E20" t="n">
-        <v>102.496308</v>
+        <v>102.420187</v>
       </c>
       <c r="F20" t="n">
-        <v>101.4067418</v>
+        <v>101.1657978</v>
       </c>
       <c r="G20" t="n">
-        <v>102.4812083</v>
+        <v>102.5916559</v>
       </c>
       <c r="H20" t="n">
-        <v>101.1371374</v>
+        <v>100.8473605</v>
       </c>
       <c r="I20" t="n">
-        <v>101.4013752</v>
+        <v>101.310334</v>
       </c>
       <c r="J20" t="n">
-        <v>99.85376359999999</v>
+        <v>98.17337912000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.7211743</v>
+        <v>101.1200346</v>
       </c>
       <c r="C21" t="n">
-        <v>101.3673791</v>
+        <v>102.8627635</v>
       </c>
       <c r="D21" t="n">
-        <v>105.9313985</v>
+        <v>105.8522913</v>
       </c>
       <c r="E21" t="n">
-        <v>102.6752945</v>
+        <v>102.4620425</v>
       </c>
       <c r="F21" t="n">
-        <v>101.7672098</v>
+        <v>101.5170654</v>
       </c>
       <c r="G21" t="n">
-        <v>102.5206019</v>
+        <v>102.5663739</v>
       </c>
       <c r="H21" t="n">
-        <v>101.2537308</v>
+        <v>101.0068592</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2581856</v>
+        <v>101.3300754</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4215176</v>
+        <v>99.50122564999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.5278103</v>
+        <v>100.1498051</v>
       </c>
       <c r="C22" t="n">
-        <v>101.4143526</v>
+        <v>102.7797404</v>
       </c>
       <c r="D22" t="n">
-        <v>107.5769354</v>
+        <v>105.7083957</v>
       </c>
       <c r="E22" t="n">
-        <v>102.7522328</v>
+        <v>102.5196776</v>
       </c>
       <c r="F22" t="n">
-        <v>101.6320063</v>
+        <v>101.4958174</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2806726</v>
+        <v>102.5126431</v>
       </c>
       <c r="H22" t="n">
-        <v>101.3678238</v>
+        <v>101.0764827</v>
       </c>
       <c r="I22" t="n">
-        <v>101.2960784</v>
+        <v>101.4098871</v>
       </c>
       <c r="J22" t="n">
-        <v>99.62766842000001</v>
+        <v>99.78639445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.8310322</v>
+        <v>99.76466455000001</v>
       </c>
       <c r="C23" t="n">
-        <v>101.7832288</v>
+        <v>101.3172763</v>
       </c>
       <c r="D23" t="n">
-        <v>107.1891257</v>
+        <v>105.4965096</v>
       </c>
       <c r="E23" t="n">
-        <v>102.8332897</v>
+        <v>102.496308</v>
       </c>
       <c r="F23" t="n">
-        <v>101.8683825</v>
+        <v>101.4067418</v>
       </c>
       <c r="G23" t="n">
-        <v>102.2515265</v>
+        <v>102.4812083</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4788541</v>
+        <v>101.1371374</v>
       </c>
       <c r="I23" t="n">
-        <v>101.2302301</v>
+        <v>101.4013752</v>
       </c>
       <c r="J23" t="n">
-        <v>100.2879747</v>
+        <v>99.85376359999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.3266458</v>
+        <v>100.7211743</v>
       </c>
       <c r="C24" t="n">
-        <v>101.7322638</v>
+        <v>101.3673791</v>
       </c>
       <c r="D24" t="n">
-        <v>106.9506604</v>
+        <v>105.9313985</v>
       </c>
       <c r="E24" t="n">
-        <v>102.8018422</v>
+        <v>102.6752945</v>
       </c>
       <c r="F24" t="n">
-        <v>101.7345582</v>
+        <v>101.7672098</v>
       </c>
       <c r="G24" t="n">
-        <v>102.0407436</v>
+        <v>102.5206019</v>
       </c>
       <c r="H24" t="n">
-        <v>101.5366527</v>
+        <v>101.2537308</v>
       </c>
       <c r="I24" t="n">
-        <v>101.1580093</v>
+        <v>101.2581856</v>
       </c>
       <c r="J24" t="n">
-        <v>99.82034063</v>
+        <v>100.4215176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.1591878</v>
+        <v>100.5278103</v>
       </c>
       <c r="C25" t="n">
-        <v>101.9161302</v>
+        <v>101.4143526</v>
       </c>
       <c r="D25" t="n">
-        <v>106.5813459</v>
+        <v>107.5769354</v>
       </c>
       <c r="E25" t="n">
-        <v>102.7886391</v>
+        <v>102.7522328</v>
       </c>
       <c r="F25" t="n">
-        <v>101.8482176</v>
+        <v>101.6320063</v>
       </c>
       <c r="G25" t="n">
-        <v>102.0643075</v>
+        <v>102.2806726</v>
       </c>
       <c r="H25" t="n">
-        <v>101.5840335</v>
+        <v>101.3678238</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2575612</v>
+        <v>101.2960784</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3089977</v>
+        <v>99.62766842000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.1660823</v>
+        <v>103.20302352</v>
       </c>
       <c r="C26" t="n">
-        <v>101.207864</v>
+        <v>101.25336157</v>
       </c>
       <c r="D26" t="n">
-        <v>106.1635625</v>
+        <v>102.57243095</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6603007</v>
+        <v>102.54121553</v>
       </c>
       <c r="F26" t="n">
-        <v>101.4679661</v>
+        <v>102.54315116</v>
       </c>
       <c r="G26" t="n">
-        <v>100.9055795</v>
+        <v>102.48687463</v>
       </c>
       <c r="H26" t="n">
-        <v>101.5253402</v>
+        <v>101.51572921</v>
       </c>
       <c r="I26" t="n">
-        <v>101.3593062</v>
+        <v>101.42180894</v>
       </c>
       <c r="J26" t="n">
-        <v>100.1650658</v>
+        <v>102.94136442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.5236434</v>
+        <v>101.63444376</v>
       </c>
       <c r="C27" t="n">
-        <v>101.664213</v>
+        <v>101.47621982</v>
       </c>
       <c r="D27" t="n">
-        <v>106.0283922</v>
+        <v>102.56211094</v>
       </c>
       <c r="E27" t="n">
-        <v>102.2422538</v>
+        <v>102.38246828</v>
       </c>
       <c r="F27" t="n">
-        <v>102.9038877</v>
+        <v>102.175041</v>
       </c>
       <c r="G27" t="n">
-        <v>103.6958673</v>
+        <v>102.46812709</v>
       </c>
       <c r="H27" t="n">
-        <v>101.829904</v>
+        <v>101.48031656</v>
       </c>
       <c r="I27" t="n">
-        <v>101.0607319</v>
+        <v>101.35176045</v>
       </c>
       <c r="J27" t="n">
-        <v>103.6166901</v>
+        <v>102.45511027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.3252766</v>
+        <v>99.34565118</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1889174</v>
+        <v>101.62149528</v>
       </c>
       <c r="D28" t="n">
-        <v>105.7383832</v>
+        <v>102.53851815</v>
       </c>
       <c r="E28" t="n">
-        <v>102.2441205</v>
+        <v>102.22402078</v>
       </c>
       <c r="F28" t="n">
-        <v>102.0566543</v>
+        <v>101.86069849</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1593261</v>
+        <v>102.34911222</v>
       </c>
       <c r="H28" t="n">
-        <v>101.587942</v>
+        <v>101.4495633</v>
       </c>
       <c r="I28" t="n">
-        <v>101.0661122</v>
+        <v>101.51827462</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0320732</v>
+        <v>102.426221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.1</v>
+        <v>100.1660823</v>
       </c>
       <c r="C29" t="n">
-        <v>100.9</v>
+        <v>101.207864</v>
       </c>
       <c r="D29" t="n">
-        <v>105.2</v>
+        <v>106.1635625</v>
       </c>
       <c r="E29" t="n">
-        <v>102.2</v>
+        <v>102.6603007</v>
       </c>
       <c r="F29" t="n">
-        <v>101.8</v>
+        <v>101.4679661</v>
       </c>
       <c r="G29" t="n">
-        <v>102</v>
+        <v>100.9055795</v>
       </c>
       <c r="H29" t="n">
-        <v>101.5</v>
+        <v>101.5253402</v>
       </c>
       <c r="I29" t="n">
-        <v>101.1</v>
+        <v>101.3593062</v>
       </c>
       <c r="J29" t="n">
-        <v>101.1</v>
+        <v>100.1650658</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.8</v>
+        <v>101.5236434</v>
       </c>
       <c r="C30" t="n">
-        <v>101</v>
+        <v>101.664213</v>
       </c>
       <c r="D30" t="n">
-        <v>105.1</v>
+        <v>106.0283922</v>
       </c>
       <c r="E30" t="n">
-        <v>102.2</v>
+        <v>102.2422538</v>
       </c>
       <c r="F30" t="n">
-        <v>101.8</v>
+        <v>102.9038877</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9</v>
+        <v>103.6958673</v>
       </c>
       <c r="H30" t="n">
-        <v>101.5</v>
+        <v>101.829904</v>
       </c>
       <c r="I30" t="n">
-        <v>101.1</v>
+        <v>101.0607319</v>
       </c>
       <c r="J30" t="n">
-        <v>100.7</v>
+        <v>103.6166901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.40455749</v>
+        <v>100.3252766</v>
       </c>
       <c r="C31" t="n">
-        <v>100.88445805</v>
+        <v>101.1889174</v>
       </c>
       <c r="D31" t="n">
-        <v>104.95491446</v>
+        <v>105.7383832</v>
       </c>
       <c r="E31" t="n">
-        <v>102.26476044</v>
+        <v>102.2441205</v>
       </c>
       <c r="F31" t="n">
-        <v>101.85362997</v>
+        <v>102.0566543</v>
       </c>
       <c r="G31" t="n">
-        <v>101.8482365</v>
+        <v>102.1593261</v>
       </c>
       <c r="H31" t="n">
-        <v>101.52117468</v>
+        <v>101.587942</v>
       </c>
       <c r="I31" t="n">
-        <v>101.12698356</v>
+        <v>101.0661122</v>
       </c>
       <c r="J31" t="n">
-        <v>100.83553396</v>
+        <v>102.0320732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.01158004</v>
+        <v>101.1</v>
       </c>
       <c r="C32" t="n">
-        <v>101.22131877</v>
+        <v>100.9</v>
       </c>
       <c r="D32" t="n">
-        <v>104.64135833</v>
+        <v>105.2</v>
       </c>
       <c r="E32" t="n">
-        <v>102.3733268</v>
+        <v>102.2</v>
       </c>
       <c r="F32" t="n">
-        <v>102.0594179</v>
+        <v>101.8</v>
       </c>
       <c r="G32" t="n">
-        <v>102.33099398</v>
+        <v>102</v>
       </c>
       <c r="H32" t="n">
-        <v>101.55165137</v>
+        <v>101.5</v>
       </c>
       <c r="I32" t="n">
-        <v>101.19623943</v>
+        <v>101.1</v>
       </c>
       <c r="J32" t="n">
-        <v>101.03974767</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.65993743</v>
+        <v>101.8</v>
       </c>
       <c r="C33" t="n">
-        <v>101.16387441</v>
+        <v>101</v>
       </c>
       <c r="D33" t="n">
-        <v>104.28106975</v>
+        <v>105.1</v>
       </c>
       <c r="E33" t="n">
-        <v>102.53667305</v>
+        <v>102.2</v>
       </c>
       <c r="F33" t="n">
-        <v>102.30314095</v>
+        <v>101.8</v>
       </c>
       <c r="G33" t="n">
-        <v>102.60681374</v>
+        <v>101.9</v>
       </c>
       <c r="H33" t="n">
-        <v>101.56162626</v>
+        <v>101.5</v>
       </c>
       <c r="I33" t="n">
-        <v>101.31863382</v>
+        <v>101.1</v>
       </c>
       <c r="J33" t="n">
-        <v>101.85064712</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.78876282</v>
+        <v>102.40455749</v>
       </c>
       <c r="C34" t="n">
-        <v>100.72271186</v>
+        <v>100.88445805</v>
       </c>
       <c r="D34" t="n">
-        <v>102.6510413</v>
+        <v>104.95491446</v>
       </c>
       <c r="E34" t="n">
-        <v>102.58121872</v>
+        <v>102.26476044</v>
       </c>
       <c r="F34" t="n">
-        <v>102.47239413</v>
+        <v>101.85362997</v>
       </c>
       <c r="G34" t="n">
-        <v>102.16713171</v>
+        <v>101.8482365</v>
       </c>
       <c r="H34" t="n">
-        <v>101.59618747</v>
+        <v>101.52117468</v>
       </c>
       <c r="I34" t="n">
-        <v>101.18869994</v>
+        <v>101.12698356</v>
       </c>
       <c r="J34" t="n">
-        <v>103.04371004</v>
+        <v>100.83553396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.20302352</v>
+        <v>103.01158004</v>
       </c>
       <c r="C35" t="n">
-        <v>101.25336157</v>
+        <v>101.22131877</v>
       </c>
       <c r="D35" t="n">
-        <v>102.57243095</v>
+        <v>104.64135833</v>
       </c>
       <c r="E35" t="n">
-        <v>102.54121553</v>
+        <v>102.3733268</v>
       </c>
       <c r="F35" t="n">
-        <v>102.54315116</v>
+        <v>102.0594179</v>
       </c>
       <c r="G35" t="n">
-        <v>102.48687463</v>
+        <v>102.33099398</v>
       </c>
       <c r="H35" t="n">
-        <v>101.51572921</v>
+        <v>101.55165137</v>
       </c>
       <c r="I35" t="n">
-        <v>101.42180894</v>
+        <v>101.19623943</v>
       </c>
       <c r="J35" t="n">
-        <v>102.94136442</v>
+        <v>101.03974767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.63444376</v>
+        <v>102.65993743</v>
       </c>
       <c r="C36" t="n">
-        <v>101.47621982</v>
+        <v>101.16387441</v>
       </c>
       <c r="D36" t="n">
-        <v>102.56211094</v>
+        <v>104.28106975</v>
       </c>
       <c r="E36" t="n">
-        <v>102.38246828</v>
+        <v>102.53667305</v>
       </c>
       <c r="F36" t="n">
-        <v>102.175041</v>
+        <v>102.30314095</v>
       </c>
       <c r="G36" t="n">
-        <v>102.46812709</v>
+        <v>102.60681374</v>
       </c>
       <c r="H36" t="n">
-        <v>101.48031656</v>
+        <v>101.56162626</v>
       </c>
       <c r="I36" t="n">
-        <v>101.35176045</v>
+        <v>101.31863382</v>
       </c>
       <c r="J36" t="n">
-        <v>102.45511027</v>
+        <v>101.85064712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.34565118</v>
+        <v>102.78876282</v>
       </c>
       <c r="C37" t="n">
-        <v>101.62149528</v>
+        <v>100.72271186</v>
       </c>
       <c r="D37" t="n">
-        <v>102.53851815</v>
+        <v>102.6510413</v>
       </c>
       <c r="E37" t="n">
-        <v>102.22402078</v>
+        <v>102.58121872</v>
       </c>
       <c r="F37" t="n">
-        <v>101.86069849</v>
+        <v>102.47239413</v>
       </c>
       <c r="G37" t="n">
-        <v>102.34911222</v>
+        <v>102.16713171</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4495633</v>
+        <v>101.59618747</v>
       </c>
       <c r="I37" t="n">
-        <v>101.51827462</v>
+        <v>101.18869994</v>
       </c>
       <c r="J37" t="n">
-        <v>102.426221</v>
+        <v>103.04371004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.73380237000001</v>
+        <v>96.50134004</v>
       </c>
       <c r="C38" t="n">
-        <v>102.26148906</v>
+        <v>105.54339273</v>
       </c>
       <c r="D38" t="n">
-        <v>102.65922147</v>
+        <v>102.11425657</v>
       </c>
       <c r="E38" t="n">
-        <v>102.06716231</v>
+        <v>100.52168601</v>
       </c>
       <c r="F38" t="n">
-        <v>101.74041115</v>
+        <v>103.7551002</v>
       </c>
       <c r="G38" t="n">
-        <v>102.88268938</v>
+        <v>101.91072563</v>
       </c>
       <c r="H38" t="n">
-        <v>101.52378355</v>
+        <v>100.57551753</v>
       </c>
       <c r="I38" t="n">
-        <v>101.58328863</v>
+        <v>101.17436808</v>
       </c>
       <c r="J38" t="n">
-        <v>102.03530904</v>
+        <v>111.38165308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.7958782</v>
+        <v>97.2239295</v>
       </c>
       <c r="C39" t="n">
-        <v>101.99966756</v>
+        <v>104.53688318</v>
       </c>
       <c r="D39" t="n">
-        <v>102.75252659</v>
+        <v>102.01046582</v>
       </c>
       <c r="E39" t="n">
-        <v>102.20856206</v>
+        <v>100.43474942</v>
       </c>
       <c r="F39" t="n">
-        <v>101.48676502</v>
+        <v>104.48842578</v>
       </c>
       <c r="G39" t="n">
-        <v>102.36395475</v>
+        <v>101.73959667</v>
       </c>
       <c r="H39" t="n">
-        <v>101.30730978</v>
+        <v>100.42781081</v>
       </c>
       <c r="I39" t="n">
-        <v>101.95348704</v>
+        <v>101.07232382</v>
       </c>
       <c r="J39" t="n">
-        <v>101.21503347</v>
+        <v>113.93497729</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.05665967</v>
+        <v>99.25218282</v>
       </c>
       <c r="C40" t="n">
-        <v>101.93482484</v>
+        <v>104.42667102</v>
       </c>
       <c r="D40" t="n">
-        <v>102.6848831</v>
+        <v>102.06129535</v>
       </c>
       <c r="E40" t="n">
-        <v>102.06200448</v>
+        <v>100.52058575</v>
       </c>
       <c r="F40" t="n">
-        <v>102.27640249</v>
+        <v>104.45517388</v>
       </c>
       <c r="G40" t="n">
-        <v>102.41963143</v>
+        <v>101.81485747</v>
       </c>
       <c r="H40" t="n">
-        <v>101.18318224</v>
+        <v>100.35862949</v>
       </c>
       <c r="I40" t="n">
-        <v>101.96188825</v>
+        <v>100.80112337</v>
       </c>
       <c r="J40" t="n">
-        <v>103.47824792</v>
+        <v>112.89845976</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.47882430999999</v>
+        <v>98.73380237000001</v>
       </c>
       <c r="C41" t="n">
-        <v>101.91912226</v>
+        <v>102.26148906</v>
       </c>
       <c r="D41" t="n">
-        <v>102.58521197</v>
+        <v>102.65922147</v>
       </c>
       <c r="E41" t="n">
-        <v>101.95935461</v>
+        <v>102.06716231</v>
       </c>
       <c r="F41" t="n">
-        <v>102.53989216</v>
+        <v>101.74041115</v>
       </c>
       <c r="G41" t="n">
-        <v>102.51776371</v>
+        <v>102.88268938</v>
       </c>
       <c r="H41" t="n">
-        <v>101.08710801</v>
+        <v>101.52378355</v>
       </c>
       <c r="I41" t="n">
-        <v>101.82512257</v>
+        <v>101.58328863</v>
       </c>
       <c r="J41" t="n">
-        <v>104.7493674</v>
+        <v>102.03530904</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.10714686999999</v>
+        <v>98.7958782</v>
       </c>
       <c r="C42" t="n">
-        <v>102.09851447</v>
+        <v>101.99966756</v>
       </c>
       <c r="D42" t="n">
-        <v>102.46379061</v>
+        <v>102.75252659</v>
       </c>
       <c r="E42" t="n">
-        <v>101.81941718</v>
+        <v>102.20856206</v>
       </c>
       <c r="F42" t="n">
-        <v>102.74282264</v>
+        <v>101.48676502</v>
       </c>
       <c r="G42" t="n">
-        <v>102.58831274</v>
+        <v>102.36395475</v>
       </c>
       <c r="H42" t="n">
-        <v>100.96503192</v>
+        <v>101.30730978</v>
       </c>
       <c r="I42" t="n">
-        <v>101.73686791</v>
+        <v>101.95348704</v>
       </c>
       <c r="J42" t="n">
-        <v>105.75907957</v>
+        <v>101.21503347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.12267039</v>
+        <v>100.05665967</v>
       </c>
       <c r="C43" t="n">
-        <v>102.7015517</v>
+        <v>101.93482484</v>
       </c>
       <c r="D43" t="n">
-        <v>102.54184867</v>
+        <v>102.6848831</v>
       </c>
       <c r="E43" t="n">
-        <v>101.59400018</v>
+        <v>102.06200448</v>
       </c>
       <c r="F43" t="n">
-        <v>102.68144539</v>
+        <v>102.27640249</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3980856</v>
+        <v>102.41963143</v>
       </c>
       <c r="H43" t="n">
-        <v>100.79492901</v>
+        <v>101.18318224</v>
       </c>
       <c r="I43" t="n">
-        <v>101.8118597</v>
+        <v>101.96188825</v>
       </c>
       <c r="J43" t="n">
-        <v>106.14755919</v>
+        <v>103.47824792</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.87500008000001</v>
+        <v>99.47882430999999</v>
       </c>
       <c r="C44" t="n">
-        <v>103.35762859</v>
+        <v>101.91912226</v>
       </c>
       <c r="D44" t="n">
-        <v>102.57275529</v>
+        <v>102.58521197</v>
       </c>
       <c r="E44" t="n">
-        <v>101.45395042</v>
+        <v>101.95935461</v>
       </c>
       <c r="F44" t="n">
-        <v>102.78264084</v>
+        <v>102.53989216</v>
       </c>
       <c r="G44" t="n">
-        <v>102.25326614</v>
+        <v>102.51776371</v>
       </c>
       <c r="H44" t="n">
-        <v>100.79774293</v>
+        <v>101.08710801</v>
       </c>
       <c r="I44" t="n">
-        <v>101.78782951</v>
+        <v>101.82512257</v>
       </c>
       <c r="J44" t="n">
-        <v>106.69154099</v>
+        <v>104.7493674</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.67162442</v>
+        <v>99.10714686999999</v>
       </c>
       <c r="C45" t="n">
-        <v>104.6544649</v>
+        <v>102.09851447</v>
       </c>
       <c r="D45" t="n">
-        <v>102.34508954</v>
+        <v>102.46379061</v>
       </c>
       <c r="E45" t="n">
-        <v>101.04331214</v>
+        <v>101.81941718</v>
       </c>
       <c r="F45" t="n">
-        <v>102.8434701</v>
+        <v>102.74282264</v>
       </c>
       <c r="G45" t="n">
-        <v>102.1237375</v>
+        <v>102.58831274</v>
       </c>
       <c r="H45" t="n">
-        <v>100.70209216</v>
+        <v>100.96503192</v>
       </c>
       <c r="I45" t="n">
-        <v>101.59377869</v>
+        <v>101.73686791</v>
       </c>
       <c r="J45" t="n">
-        <v>107.27918188</v>
+        <v>105.75907957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.05831556</v>
+        <v>98.12267039</v>
       </c>
       <c r="C46" t="n">
-        <v>105.77242343</v>
+        <v>102.7015517</v>
       </c>
       <c r="D46" t="n">
-        <v>102.2090093</v>
+        <v>102.54184867</v>
       </c>
       <c r="E46" t="n">
-        <v>100.72946141</v>
+        <v>101.59400018</v>
       </c>
       <c r="F46" t="n">
-        <v>103.02304182</v>
+        <v>102.68144539</v>
       </c>
       <c r="G46" t="n">
-        <v>101.74833949</v>
+        <v>102.3980856</v>
       </c>
       <c r="H46" t="n">
-        <v>100.58943129</v>
+        <v>100.79492901</v>
       </c>
       <c r="I46" t="n">
-        <v>101.64403077</v>
+        <v>101.8118597</v>
       </c>
       <c r="J46" t="n">
-        <v>108.38894898</v>
+        <v>106.14755919</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>96.50134004</v>
+        <v>97.87500008000001</v>
       </c>
       <c r="C47" t="n">
-        <v>105.54339273</v>
+        <v>103.35762859</v>
       </c>
       <c r="D47" t="n">
-        <v>102.11425657</v>
+        <v>102.57275529</v>
       </c>
       <c r="E47" t="n">
-        <v>100.52168601</v>
+        <v>101.45395042</v>
       </c>
       <c r="F47" t="n">
-        <v>103.7551002</v>
+        <v>102.78264084</v>
       </c>
       <c r="G47" t="n">
-        <v>101.91072563</v>
+        <v>102.25326614</v>
       </c>
       <c r="H47" t="n">
-        <v>100.57551753</v>
+        <v>100.79774293</v>
       </c>
       <c r="I47" t="n">
-        <v>101.17436808</v>
+        <v>101.78782951</v>
       </c>
       <c r="J47" t="n">
-        <v>111.38165308</v>
+        <v>106.69154099</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.2239295</v>
+        <v>97.67162442</v>
       </c>
       <c r="C48" t="n">
-        <v>104.53688318</v>
+        <v>104.6544649</v>
       </c>
       <c r="D48" t="n">
-        <v>102.01046582</v>
+        <v>102.34508954</v>
       </c>
       <c r="E48" t="n">
-        <v>100.43474942</v>
+        <v>101.04331214</v>
       </c>
       <c r="F48" t="n">
-        <v>104.48842578</v>
+        <v>102.8434701</v>
       </c>
       <c r="G48" t="n">
-        <v>101.73959667</v>
+        <v>102.1237375</v>
       </c>
       <c r="H48" t="n">
-        <v>100.42781081</v>
+        <v>100.70209216</v>
       </c>
       <c r="I48" t="n">
-        <v>101.07232382</v>
+        <v>101.59377869</v>
       </c>
       <c r="J48" t="n">
-        <v>113.93497729</v>
+        <v>107.27918188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.25218282</v>
+        <v>97.05831556</v>
       </c>
       <c r="C49" t="n">
-        <v>104.42667102</v>
+        <v>105.77242343</v>
       </c>
       <c r="D49" t="n">
-        <v>102.06129535</v>
+        <v>102.2090093</v>
       </c>
       <c r="E49" t="n">
-        <v>100.52058575</v>
+        <v>100.72946141</v>
       </c>
       <c r="F49" t="n">
-        <v>104.45517388</v>
+        <v>103.02304182</v>
       </c>
       <c r="G49" t="n">
-        <v>101.81485747</v>
+        <v>101.74833949</v>
       </c>
       <c r="H49" t="n">
-        <v>100.35862949</v>
+        <v>100.58943129</v>
       </c>
       <c r="I49" t="n">
-        <v>100.80112337</v>
+        <v>101.64403077</v>
       </c>
       <c r="J49" t="n">
-        <v>112.89845976</v>
+        <v>108.38894898</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.85037712</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>104.82385123</v>
+        <v>102.4</v>
       </c>
       <c r="D50" t="n">
-        <v>102.2607266</v>
+        <v>101.5</v>
       </c>
       <c r="E50" t="n">
-        <v>100.50736844</v>
+        <v>99.3</v>
       </c>
       <c r="F50" t="n">
-        <v>105.38456885</v>
+        <v>100.5</v>
       </c>
       <c r="G50" t="n">
-        <v>102.23094178</v>
+        <v>101.1</v>
       </c>
       <c r="H50" t="n">
-        <v>100.23203491</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>100.55069866</v>
+        <v>99.7</v>
       </c>
       <c r="J50" t="n">
-        <v>115.15250628</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.38930411</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>104.42048737</v>
+        <v>102.5</v>
       </c>
       <c r="D51" t="n">
-        <v>102.15199962</v>
+        <v>101.5</v>
       </c>
       <c r="E51" t="n">
-        <v>100.2606804</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>105.17477579</v>
+        <v>99.5</v>
       </c>
       <c r="G51" t="n">
-        <v>100.9541732</v>
+        <v>101</v>
       </c>
       <c r="H51" t="n">
-        <v>100.06307656</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>100.47144672</v>
+        <v>99.7</v>
       </c>
       <c r="J51" t="n">
-        <v>116.01010261</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>96.2404672</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>105.34322799</v>
+        <v>102.2</v>
       </c>
       <c r="D52" t="n">
-        <v>102.17198516</v>
+        <v>101.3</v>
       </c>
       <c r="E52" t="n">
-        <v>99.89101386</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>104.27006363</v>
+        <v>100.2</v>
       </c>
       <c r="G52" t="n">
-        <v>102.5289693</v>
+        <v>100.9</v>
       </c>
       <c r="H52" t="n">
-        <v>100.27427887</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>99.71829345</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>113.59269936</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>95.06963788</v>
+        <v>100.85037712</v>
       </c>
       <c r="C53" t="n">
-        <v>104.81444328</v>
+        <v>104.82385123</v>
       </c>
       <c r="D53" t="n">
-        <v>102.24724384</v>
+        <v>102.2607266</v>
       </c>
       <c r="E53" t="n">
-        <v>99.66366785</v>
+        <v>100.50736844</v>
       </c>
       <c r="F53" t="n">
-        <v>103.29199133</v>
+        <v>105.38456885</v>
       </c>
       <c r="G53" t="n">
-        <v>101.9969751</v>
+        <v>102.23094178</v>
       </c>
       <c r="H53" t="n">
-        <v>100.11194141</v>
+        <v>100.23203491</v>
       </c>
       <c r="I53" t="n">
-        <v>99.61262795</v>
+        <v>100.55069866</v>
       </c>
       <c r="J53" t="n">
-        <v>111.25969302</v>
+        <v>115.15250628</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>94.91771399</v>
+        <v>98.38930411</v>
       </c>
       <c r="C54" t="n">
-        <v>105.29578052</v>
+        <v>104.42048737</v>
       </c>
       <c r="D54" t="n">
-        <v>102.1182498</v>
+        <v>102.15199962</v>
       </c>
       <c r="E54" t="n">
-        <v>99.53274455</v>
+        <v>100.2606804</v>
       </c>
       <c r="F54" t="n">
-        <v>102.43772471</v>
+        <v>105.17477579</v>
       </c>
       <c r="G54" t="n">
-        <v>102.20131426</v>
+        <v>100.9541732</v>
       </c>
       <c r="H54" t="n">
-        <v>100.10147282</v>
+        <v>100.06307656</v>
       </c>
       <c r="I54" t="n">
-        <v>99.64852008</v>
+        <v>100.47144672</v>
       </c>
       <c r="J54" t="n">
-        <v>108.46724322</v>
+        <v>116.01010261</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>95.35457821999999</v>
+        <v>96.2404672</v>
       </c>
       <c r="C55" t="n">
-        <v>105.10652508</v>
+        <v>105.34322799</v>
       </c>
       <c r="D55" t="n">
-        <v>101.8535415</v>
+        <v>102.17198516</v>
       </c>
       <c r="E55" t="n">
-        <v>99.41065673</v>
+        <v>99.89101386</v>
       </c>
       <c r="F55" t="n">
-        <v>102.48342187</v>
+        <v>104.27006363</v>
       </c>
       <c r="G55" t="n">
-        <v>101.90267047</v>
+        <v>102.5289693</v>
       </c>
       <c r="H55" t="n">
-        <v>100.03542941</v>
+        <v>100.27427887</v>
       </c>
       <c r="I55" t="n">
-        <v>99.56764139000001</v>
+        <v>99.71829345</v>
       </c>
       <c r="J55" t="n">
-        <v>108.76754609</v>
+        <v>113.59269936</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>95.60375409</v>
+        <v>95.06963788</v>
       </c>
       <c r="C56" t="n">
-        <v>105.06327793</v>
+        <v>104.81444328</v>
       </c>
       <c r="D56" t="n">
-        <v>101.61296072</v>
+        <v>102.24724384</v>
       </c>
       <c r="E56" t="n">
-        <v>99.27508942999999</v>
+        <v>99.66366785</v>
       </c>
       <c r="F56" t="n">
-        <v>102.69585411</v>
+        <v>103.29199133</v>
       </c>
       <c r="G56" t="n">
-        <v>100.32488432</v>
+        <v>101.9969751</v>
       </c>
       <c r="H56" t="n">
-        <v>99.93585517</v>
+        <v>100.11194141</v>
       </c>
       <c r="I56" t="n">
-        <v>99.46810781000001</v>
+        <v>99.61262795</v>
       </c>
       <c r="J56" t="n">
-        <v>110.1598153</v>
+        <v>111.25969302</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>96.07595918</v>
+        <v>94.91771399</v>
       </c>
       <c r="C57" t="n">
-        <v>106.09840999</v>
+        <v>105.29578052</v>
       </c>
       <c r="D57" t="n">
-        <v>101.52081485</v>
+        <v>102.1182498</v>
       </c>
       <c r="E57" t="n">
-        <v>99.25045926999999</v>
+        <v>99.53274455</v>
       </c>
       <c r="F57" t="n">
-        <v>102.37561276</v>
+        <v>102.43772471</v>
       </c>
       <c r="G57" t="n">
-        <v>99.97278547000001</v>
+        <v>102.20131426</v>
       </c>
       <c r="H57" t="n">
-        <v>99.90737832000001</v>
+        <v>100.10147282</v>
       </c>
       <c r="I57" t="n">
-        <v>99.54678362999999</v>
+        <v>99.64852008</v>
       </c>
       <c r="J57" t="n">
-        <v>108.82773666</v>
+        <v>108.46724322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>96.37115163999999</v>
+        <v>95.35457821999999</v>
       </c>
       <c r="C58" t="n">
-        <v>104.25417148</v>
+        <v>105.10652508</v>
       </c>
       <c r="D58" t="n">
-        <v>101.48276218</v>
+        <v>101.8535415</v>
       </c>
       <c r="E58" t="n">
-        <v>99.21861214</v>
+        <v>99.41065673</v>
       </c>
       <c r="F58" t="n">
-        <v>101.71747588</v>
+        <v>102.48342187</v>
       </c>
       <c r="G58" t="n">
-        <v>100.65426083</v>
+        <v>101.90267047</v>
       </c>
       <c r="H58" t="n">
-        <v>99.86720926</v>
+        <v>100.03542941</v>
       </c>
       <c r="I58" t="n">
-        <v>99.59875327</v>
+        <v>99.56764139000001</v>
       </c>
       <c r="J58" t="n">
-        <v>106.40244843</v>
+        <v>108.76754609</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.09999999999999</v>
+        <v>95.60375409</v>
       </c>
       <c r="C59" t="n">
-        <v>102.4</v>
+        <v>105.06327793</v>
       </c>
       <c r="D59" t="n">
-        <v>101.5</v>
+        <v>101.61296072</v>
       </c>
       <c r="E59" t="n">
-        <v>99.3</v>
+        <v>99.27508942999999</v>
       </c>
       <c r="F59" t="n">
-        <v>100.5</v>
+        <v>102.69585411</v>
       </c>
       <c r="G59" t="n">
-        <v>101.1</v>
+        <v>100.32488432</v>
       </c>
       <c r="H59" t="n">
-        <v>99.90000000000001</v>
+        <v>99.93585517</v>
       </c>
       <c r="I59" t="n">
-        <v>99.7</v>
+        <v>99.46810781000001</v>
       </c>
       <c r="J59" t="n">
-        <v>102.4</v>
+        <v>110.1598153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.09999999999999</v>
+        <v>96.07595918</v>
       </c>
       <c r="C60" t="n">
-        <v>102.5</v>
+        <v>106.09840999</v>
       </c>
       <c r="D60" t="n">
-        <v>101.5</v>
+        <v>101.52081485</v>
       </c>
       <c r="E60" t="n">
-        <v>99.40000000000001</v>
+        <v>99.25045926999999</v>
       </c>
       <c r="F60" t="n">
-        <v>99.5</v>
+        <v>102.37561276</v>
       </c>
       <c r="G60" t="n">
-        <v>101</v>
+        <v>99.97278547000001</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>99.90737832000001</v>
       </c>
       <c r="I60" t="n">
-        <v>99.7</v>
+        <v>99.54678362999999</v>
       </c>
       <c r="J60" t="n">
-        <v>99.3</v>
+        <v>108.82773666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.90000000000001</v>
+        <v>96.37115163999999</v>
       </c>
       <c r="C61" t="n">
-        <v>102.2</v>
+        <v>104.25417148</v>
       </c>
       <c r="D61" t="n">
-        <v>101.3</v>
+        <v>101.48276218</v>
       </c>
       <c r="E61" t="n">
-        <v>99.40000000000001</v>
+        <v>99.21861214</v>
       </c>
       <c r="F61" t="n">
-        <v>100.2</v>
+        <v>101.71747588</v>
       </c>
       <c r="G61" t="n">
-        <v>100.9</v>
+        <v>100.65426083</v>
       </c>
       <c r="H61" t="n">
-        <v>100</v>
+        <v>99.86720926</v>
       </c>
       <c r="I61" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59875327</v>
       </c>
       <c r="J61" t="n">
-        <v>101.4</v>
+        <v>106.40244843</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>95.40000000000001</v>
+        <v>107</v>
       </c>
       <c r="C62" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J62" t="n">
         <v>99.09999999999999</v>
-      </c>
-      <c r="D62" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E62" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F62" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G62" t="n">
-        <v>100</v>
-      </c>
-      <c r="H62" t="n">
-        <v>100</v>
-      </c>
-      <c r="I62" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>101.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98.09999999999999</v>
+        <v>107.6</v>
       </c>
       <c r="C63" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="E63" t="n">
-        <v>99.7</v>
+        <v>101.7</v>
       </c>
       <c r="F63" t="n">
-        <v>99.8</v>
+        <v>102.3</v>
       </c>
       <c r="G63" t="n">
-        <v>100.6</v>
+        <v>103</v>
       </c>
       <c r="H63" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="I63" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
       <c r="J63" t="n">
-        <v>100.3</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>102.7</v>
+        <v>105</v>
       </c>
       <c r="C64" t="n">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="D64" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="E64" t="n">
-        <v>100.2</v>
+        <v>101.6</v>
       </c>
       <c r="F64" t="n">
-        <v>100.4</v>
+        <v>101.5</v>
       </c>
       <c r="G64" t="n">
-        <v>100.4</v>
+        <v>103.1</v>
       </c>
       <c r="H64" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="I64" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="J64" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>104.9</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="E65" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="G65" t="n">
-        <v>101.3</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="J65" t="n">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>105.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D66" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E66" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="F66" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
       <c r="G66" t="n">
-        <v>101.5</v>
+        <v>100.6</v>
       </c>
       <c r="H66" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="I66" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="J66" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>105.8</v>
+        <v>102.7</v>
       </c>
       <c r="C67" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D67" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E67" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="F67" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="G67" t="n">
-        <v>101.5</v>
+        <v>100.4</v>
       </c>
       <c r="H67" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I67" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="J67" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>106.9</v>
+        <v>104.9</v>
       </c>
       <c r="C68" t="n">
         <v>98.7</v>
       </c>
       <c r="D68" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E68" t="n">
         <v>100.4</v>
       </c>
-      <c r="E68" t="n">
-        <v>101.1</v>
-      </c>
       <c r="F68" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="G68" t="n">
-        <v>102.7</v>
+        <v>101.3</v>
       </c>
       <c r="H68" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="I68" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="J68" t="n">
-        <v>98.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>105.9</v>
+        <v>105.5</v>
       </c>
       <c r="C69" t="n">
-        <v>96.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H69" t="n">
         <v>100.4</v>
       </c>
-      <c r="E69" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="I69" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J69" t="n">
         <v>100.8</v>
-      </c>
-      <c r="G69" t="n">
-        <v>103</v>
-      </c>
-      <c r="H69" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="I69" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>105.8</v>
       </c>
       <c r="C70" t="n">
-        <v>97.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D70" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I70" t="n">
         <v>100.4</v>
       </c>
-      <c r="E70" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G70" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="H70" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>100.5</v>
-      </c>
       <c r="J70" t="n">
-        <v>97.2</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="C71" t="n">
-        <v>99.5</v>
+        <v>98.7</v>
       </c>
       <c r="D71" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E71" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="F71" t="n">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="G71" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="H71" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="I71" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="J71" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>107.6</v>
+        <v>105.9</v>
       </c>
       <c r="C72" t="n">
-        <v>99.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E72" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="F72" t="n">
-        <v>102.3</v>
+        <v>100.8</v>
       </c>
       <c r="G72" t="n">
         <v>103</v>
       </c>
       <c r="H72" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="I72" t="n">
         <v>100.5</v>
       </c>
       <c r="J72" t="n">
-        <v>101.7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>105</v>
+        <v>105.8</v>
       </c>
       <c r="C73" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G73" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="G76" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H76" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>102</v>
+      </c>
+      <c r="H80" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>101</v>
+      </c>
+      <c r="F81" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="G83" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G85" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>102</v>
+      </c>
+      <c r="C86" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F86" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="I86" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>101</v>
+      </c>
+      <c r="E87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F87" t="n">
+        <v>101</v>
+      </c>
+      <c r="G87" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>101</v>
+      </c>
+      <c r="E88" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G88" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>101</v>
+      </c>
+      <c r="E89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100</v>
+      </c>
+      <c r="G91" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H91" t="n">
         <v>99.5</v>
       </c>
-      <c r="D73" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G73" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="I73" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>99.90000000000001</v>
+      <c r="I91" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G92" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I92" t="n">
+        <v>101</v>
+      </c>
+      <c r="J92" t="n">
+        <v>99.5</v>
       </c>
     </row>
   </sheetData>
